--- a/database.xlsx
+++ b/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\IS207-PersonalBlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B128A293-ABC5-4B06-A237-F875A7A264D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E069EB1-572F-449D-A17E-996FA8928995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5C5D118A-E53C-4D7B-B5CE-8B68BFF3DF6F}"/>
+    <workbookView xWindow="6264" yWindow="1056" windowWidth="15672" windowHeight="9456" xr2:uid="{5C5D118A-E53C-4D7B-B5CE-8B68BFF3DF6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="359">
   <si>
     <t>Category_id</t>
   </si>
@@ -441,13 +441,688 @@
   </si>
   <si>
     <t>29.990.000đ</t>
+  </si>
+  <si>
+    <t>oppo</t>
+  </si>
+  <si>
+    <t>OPPO Find X8</t>
+  </si>
+  <si>
+    <t>dien-thoai-oppo-find-x8-xam-1.png</t>
+  </si>
+  <si>
+    <t>OPPO A3</t>
+  </si>
+  <si>
+    <t>oppo-a3.png</t>
+  </si>
+  <si>
+    <t>OPPO Reno12 5G</t>
+  </si>
+  <si>
+    <t>oppo-reno12-5g.png</t>
+  </si>
+  <si>
+    <t>OPPO Reno12 F 5G</t>
+  </si>
+  <si>
+    <t>9.490.000đ</t>
+  </si>
+  <si>
+    <t>oppo-reno12-f-5g.png</t>
+  </si>
+  <si>
+    <t>OPPO Reno10 Pro+ 5G</t>
+  </si>
+  <si>
+    <t>19.990.000đ</t>
+  </si>
+  <si>
+    <t>oppo-reno10-pro-plus-tim.png</t>
+  </si>
+  <si>
+    <t>OPPO Reno10 5G</t>
+  </si>
+  <si>
+    <t>oppo-reno10.png</t>
+  </si>
+  <si>
+    <t>OPPO Find X5 Pro</t>
+  </si>
+  <si>
+    <t>oppo-find-x5-pro.png</t>
+  </si>
+  <si>
+    <t>OPPO A79 5G</t>
+  </si>
+  <si>
+    <t>7.490.000đ</t>
+  </si>
+  <si>
+    <t>oppo-a79-tim.png</t>
+  </si>
+  <si>
+    <t>OPPO A18</t>
+  </si>
+  <si>
+    <t>oppo-a18-den.png</t>
+  </si>
+  <si>
+    <t>OPPO Find N3</t>
+  </si>
+  <si>
+    <t>44.990.000đ</t>
+  </si>
+  <si>
+    <t>oppo-find-n3.png</t>
+  </si>
+  <si>
+    <t>OPPO A38</t>
+  </si>
+  <si>
+    <t>4.490.000đ</t>
+  </si>
+  <si>
+    <t>oppo-a38.png</t>
+  </si>
+  <si>
+    <t>OPPO Find X3 Pro 5G</t>
+  </si>
+  <si>
+    <t>oppo-find-x3-pro_1_1.png</t>
+  </si>
+  <si>
+    <t>OPPO Reno6 Z 5G</t>
+  </si>
+  <si>
+    <t>oppo_reno6.png</t>
+  </si>
+  <si>
+    <t>OPPO A17K</t>
+  </si>
+  <si>
+    <t>oppo-a17k.png</t>
+  </si>
+  <si>
+    <t>nokia</t>
+  </si>
+  <si>
+    <t>Nokia 110 4G Pro</t>
+  </si>
+  <si>
+    <t>750.000đ</t>
+  </si>
+  <si>
+    <t>nokia-110-4g-pro_1__1.png</t>
+  </si>
+  <si>
+    <t>Nokia 220 4G</t>
+  </si>
+  <si>
+    <t>990.000đ</t>
+  </si>
+  <si>
+    <t>nokia-220-4g_6_.png</t>
+  </si>
+  <si>
+    <t>Nokia HMD 105 4G</t>
+  </si>
+  <si>
+    <t>650.000đ</t>
+  </si>
+  <si>
+    <t>nokia-hmd-105-4g_3_.png</t>
+  </si>
+  <si>
+    <t>Nokia 3210 4G</t>
+  </si>
+  <si>
+    <t>1.550.000đ</t>
+  </si>
+  <si>
+    <t>nokia-3210-4g.png</t>
+  </si>
+  <si>
+    <t>Nokia G22</t>
+  </si>
+  <si>
+    <t>nokia-g22.png</t>
+  </si>
+  <si>
+    <t>laptop</t>
+  </si>
+  <si>
+    <t>acer</t>
+  </si>
+  <si>
+    <t>Laptop Acer Aspire 3</t>
+  </si>
+  <si>
+    <t>Laptop Acer Aspire 3 Spin 14</t>
+  </si>
+  <si>
+    <t>14.990.000đ</t>
+  </si>
+  <si>
+    <t>laptop-acer-aspire-3-spin-14.png</t>
+  </si>
+  <si>
+    <t>Laptop Gaming Acer Nitro 5 Tiger</t>
+  </si>
+  <si>
+    <t>27.990.000đ</t>
+  </si>
+  <si>
+    <t>laptop-acer-nitro-5-tiger.png</t>
+  </si>
+  <si>
+    <t>Laptop Acer Gaming Aspire 7</t>
+  </si>
+  <si>
+    <t>laptop-acer-aspire-7.png</t>
+  </si>
+  <si>
+    <t>Laptop Acer Gaming Aspire 5</t>
+  </si>
+  <si>
+    <t>20.490.000đ</t>
+  </si>
+  <si>
+    <t>laptop-acer-aspire-5.png</t>
+  </si>
+  <si>
+    <t>Laptop Gaming Acer Nitro 5</t>
+  </si>
+  <si>
+    <t>laptop-acer-nitro-5.png</t>
+  </si>
+  <si>
+    <t>Laptop Gaming Acer Nitro V</t>
+  </si>
+  <si>
+    <t>21.490.000đ</t>
+  </si>
+  <si>
+    <t>laptop-acer-nitro-V.png</t>
+  </si>
+  <si>
+    <t>11.990.000đ</t>
+  </si>
+  <si>
+    <t>laptop-acer-aspire-3.png</t>
+  </si>
+  <si>
+    <t>Laptop Acer Swift Lite 14 AI</t>
+  </si>
+  <si>
+    <t>laptop-acer-swift-lite-14-ai.png</t>
+  </si>
+  <si>
+    <t>Laptop Acer Aspire Lite</t>
+  </si>
+  <si>
+    <t>laptop-acer-aspire-lite.png</t>
+  </si>
+  <si>
+    <t>Apple MacBook Air M2 2024 8CPU</t>
+  </si>
+  <si>
+    <t>24.990.000đ</t>
+  </si>
+  <si>
+    <t>macbook-air-m2-2022.png</t>
+  </si>
+  <si>
+    <t>Apple MacBook Air M1</t>
+  </si>
+  <si>
+    <t>macbook-air-m1-2020.png</t>
+  </si>
+  <si>
+    <t>MacBook Air M3 13 inch 2024</t>
+  </si>
+  <si>
+    <t>macbook-air-m3-13-inch-2024.png</t>
+  </si>
+  <si>
+    <t>MacBook Pro 14 M3</t>
+  </si>
+  <si>
+    <t>39.990.000đ</t>
+  </si>
+  <si>
+    <t>macbook-pro-14-inch-m3-2023.png</t>
+  </si>
+  <si>
+    <t>MacBook Pro 14 M4 Pro</t>
+  </si>
+  <si>
+    <t>49.990.000đ</t>
+  </si>
+  <si>
+    <t>macbook-pro-14-inch-m4-pro.png</t>
+  </si>
+  <si>
+    <t>MacBook Pro 16 M3 Max</t>
+  </si>
+  <si>
+    <t>102.490.000đ</t>
+  </si>
+  <si>
+    <t>macbook-pro-16-inch-m3-max-2023.png</t>
+  </si>
+  <si>
+    <t>MacBook Air 15 inch M2 2023</t>
+  </si>
+  <si>
+    <t>macbook-air-15-inch-m2-2023.png</t>
+  </si>
+  <si>
+    <t>Apple MacBook Pro 13 Touch Bar M1</t>
+  </si>
+  <si>
+    <t>41.990.000đ</t>
+  </si>
+  <si>
+    <t>macbook-pro-13-inch-touch-bar-m1-2020.png</t>
+  </si>
+  <si>
+    <t>asus</t>
+  </si>
+  <si>
+    <t>Laptop ASUS Vivobook 15</t>
+  </si>
+  <si>
+    <t>16.490.000đ</t>
+  </si>
+  <si>
+    <t>laptop-asus-vivobook-15.png</t>
+  </si>
+  <si>
+    <t>Laptop ASUS Vivobook 14</t>
+  </si>
+  <si>
+    <t>laptop-asus-vivobook-14.png</t>
+  </si>
+  <si>
+    <t>Laptop ASUS Vivobook GO 15</t>
+  </si>
+  <si>
+    <t>14.490.000đ</t>
+  </si>
+  <si>
+    <t>laptop-asus-vivobook-go-15.png</t>
+  </si>
+  <si>
+    <t>Laptop ASUS Gaming VivoBook</t>
+  </si>
+  <si>
+    <t>25.290.000đ</t>
+  </si>
+  <si>
+    <t>laptop-asus-gaming-vivobook.png</t>
+  </si>
+  <si>
+    <t>Laptop ASUS TUF Gaming F15</t>
+  </si>
+  <si>
+    <t>25.990.000đ</t>
+  </si>
+  <si>
+    <t>laptop-asus-tuf-gaming.png</t>
+  </si>
+  <si>
+    <t>Laptop ASUS TUF Gaming A15</t>
+  </si>
+  <si>
+    <t>laptop-asus-tuf-gaming-a15.png</t>
+  </si>
+  <si>
+    <t>Laptop ASUS Zenbook 14 Oled</t>
+  </si>
+  <si>
+    <t>laptop-asus-zenbook-14-oled.png</t>
+  </si>
+  <si>
+    <t>Laptop ASUS Vivobook S 15</t>
+  </si>
+  <si>
+    <t>laptop-asus-vivobook-s-15.png</t>
+  </si>
+  <si>
+    <t>Laptop ASUS ROG Strix G16</t>
+  </si>
+  <si>
+    <t>38.990.000đ</t>
+  </si>
+  <si>
+    <t>laptop-asus-rog-strix-g16.png</t>
+  </si>
+  <si>
+    <t>dell</t>
+  </si>
+  <si>
+    <t>laptop-dell-inspiron-15.png</t>
+  </si>
+  <si>
+    <t>Laptop Dell Vostro 3520</t>
+  </si>
+  <si>
+    <t>laptop-dell-vostro-3520.png</t>
+  </si>
+  <si>
+    <t>Laptop Dell Inspiron 15 3520</t>
+  </si>
+  <si>
+    <t>Laptop Dell Latitude 3540</t>
+  </si>
+  <si>
+    <t>18.990.000đ</t>
+  </si>
+  <si>
+    <t>laptop-dell-latitude-3540.png</t>
+  </si>
+  <si>
+    <t>Laptop Dell Inspiron 15 3530</t>
+  </si>
+  <si>
+    <t>laptop-dell-inspiron-15-3530.png</t>
+  </si>
+  <si>
+    <t>Laptop Dell Latitude 5550</t>
+  </si>
+  <si>
+    <t>32.490.000đ</t>
+  </si>
+  <si>
+    <t>laptop-dell-latitude-5550.png</t>
+  </si>
+  <si>
+    <t>Laptop Dell Inspiron 14 5440</t>
+  </si>
+  <si>
+    <t>laptop-dell-inspiron-14-5440.png</t>
+  </si>
+  <si>
+    <t>Laptop Dell Inspiron 15 3525</t>
+  </si>
+  <si>
+    <t>laptop-dell-inspiron-15-3525.png</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>Laptop HP 15S-FQ5231TU</t>
+  </si>
+  <si>
+    <t>laptop-hp-15s-fq5231tu.png</t>
+  </si>
+  <si>
+    <t>Laptop HP Pavilion 15-EG2083TU</t>
+  </si>
+  <si>
+    <t>19.790.000đ</t>
+  </si>
+  <si>
+    <t>laptop-hp-15-EG2083TU.png</t>
+  </si>
+  <si>
+    <t>Laptop HP Pavilion X360 14-EK2017TU</t>
+  </si>
+  <si>
+    <t>laptop-hp-pavilion-x360-14-ek2017tu.png</t>
+  </si>
+  <si>
+    <t>Laptop HP Envy X360 2IN1 14-FC0162TU</t>
+  </si>
+  <si>
+    <t>29.890.000đ</t>
+  </si>
+  <si>
+    <t>laptop-hp-envy-x360-2in1-14-fc0162tu.png</t>
+  </si>
+  <si>
+    <t>Laptop HP 240 G9 9E5W3PT</t>
+  </si>
+  <si>
+    <t>laptop-hp-240-g9-9e5w3pt.png</t>
+  </si>
+  <si>
+    <t>Laptop HP Elitebook 630 G9 6M142PA</t>
+  </si>
+  <si>
+    <t>laptop-hp-elitebook-630-g9-6m142pa.png</t>
+  </si>
+  <si>
+    <t>Laptop HP 15 250 G8 85C69EA</t>
+  </si>
+  <si>
+    <t>laptop-hp-15-250-g8-85c69ea.png</t>
+  </si>
+  <si>
+    <t>Laptop HP Gaming Victus 15-FB1023AX 94F20PA</t>
+  </si>
+  <si>
+    <t>24.490.000đ</t>
+  </si>
+  <si>
+    <t>laptop-hp-gaming-victus-15-fb1023ax-94f20pa.png</t>
+  </si>
+  <si>
+    <t>Laptop HP Pavilion 15-EG3093TU 8C5L4PA</t>
+  </si>
+  <si>
+    <t>21.290.000đ</t>
+  </si>
+  <si>
+    <t>laptop-hp-pavilion-15-eg3093tu-8c5l4pa.png</t>
+  </si>
+  <si>
+    <t>lenovo</t>
+  </si>
+  <si>
+    <t>Laptop Lenovo LOQ 15IAX9</t>
+  </si>
+  <si>
+    <t>laptop-lenovo-loq-15iax9.png</t>
+  </si>
+  <si>
+    <t>Laptop Lenovo IdeaPad Slim 5 14Q8X9</t>
+  </si>
+  <si>
+    <t>laptop-lenovo-ideapad-slim-5-14q8x9.png</t>
+  </si>
+  <si>
+    <t>Laptop Lenovo IdeaPad Slim 3 14IAH8</t>
+  </si>
+  <si>
+    <t>15.490.000đ</t>
+  </si>
+  <si>
+    <t>laptop-lenovo-ideapad-slim-3-14iah8.png</t>
+  </si>
+  <si>
+    <t>Laptop Lenovo Legion 5 15IRX9</t>
+  </si>
+  <si>
+    <t>37.990.000đ</t>
+  </si>
+  <si>
+    <t>laptop-lenovo-legion-5-15irx9.png</t>
+  </si>
+  <si>
+    <t>Laptop Lenovo ThinkPad E14 GEN 5</t>
+  </si>
+  <si>
+    <t>laptop-lenovo-thinkpad-e14-gen-5.png</t>
+  </si>
+  <si>
+    <t>Laptop Lenovo IdeaPad 1 14ALC7</t>
+  </si>
+  <si>
+    <t>laptop-lenovo-ideapad-1-14alc7.png</t>
+  </si>
+  <si>
+    <t>Laptop Lenovo ThinkBook 16 G6 IRL</t>
+  </si>
+  <si>
+    <t>laptop-lenovo-thinkbook-16-g6-irl.png</t>
+  </si>
+  <si>
+    <t>Laptop Lenovo Yoga Slim 7 15ILL9</t>
+  </si>
+  <si>
+    <t>42.990.000đ</t>
+  </si>
+  <si>
+    <t>laptop-lenovo-yoga-slim-7-15ill9.png</t>
+  </si>
+  <si>
+    <t>Laptop Lenovo Yoga Slim 7 14IMH9</t>
+  </si>
+  <si>
+    <t>laptop-lenovo-yoga-slim-7-14imh9.png</t>
+  </si>
+  <si>
+    <t>msi</t>
+  </si>
+  <si>
+    <t>Laptop MSI Gaming Thin 15 B12UCX</t>
+  </si>
+  <si>
+    <t>17.990.000đ</t>
+  </si>
+  <si>
+    <t>laptop-msi-gaming-thin-15-b12ucx.png</t>
+  </si>
+  <si>
+    <t>Laptop MSI Gaming GF63 Thin 11UC</t>
+  </si>
+  <si>
+    <t>20.990.000đ</t>
+  </si>
+  <si>
+    <t>laptop-msi-gaming-gf63-thin-11uc.png</t>
+  </si>
+  <si>
+    <t>Laptop MSI Katana 15 B13VFK</t>
+  </si>
+  <si>
+    <t>laptop-msi-katana-15-b13vfk.png</t>
+  </si>
+  <si>
+    <t>Laptop MSI Gaming Thin 15 B13UC</t>
+  </si>
+  <si>
+    <t>21.990.000đ</t>
+  </si>
+  <si>
+    <t>laptop-msi-gaming-thin-15-b13uc.png</t>
+  </si>
+  <si>
+    <t>Laptop gaming MSI Thin A15 B7UCX</t>
+  </si>
+  <si>
+    <t>laptop-msi-gaming-thin-a15-b7ucx.png</t>
+  </si>
+  <si>
+    <t>Laptop MSI Gaming Bravo 15 C7VFK</t>
+  </si>
+  <si>
+    <t>laptop-msi-gaming-bravo-15-c7vfk.png</t>
+  </si>
+  <si>
+    <t>Laptop MSI Cyborg 15 A12UCX</t>
+  </si>
+  <si>
+    <t>laptop-msi-cyborg-15-a12ucx.png</t>
+  </si>
+  <si>
+    <t>Tai nghe Bluetooth chụp tai Sony WH-1000XM5</t>
+  </si>
+  <si>
+    <t>headphone</t>
+  </si>
+  <si>
+    <t>sony</t>
+  </si>
+  <si>
+    <t>tai-nghe-chup-tai-sony-wh-1000xm5.png</t>
+  </si>
+  <si>
+    <t>Tai nghe Bluetooth chụp tai Sony WH-CH520</t>
+  </si>
+  <si>
+    <t>1.290.000đ</t>
+  </si>
+  <si>
+    <t>tai-nghe-chup-tai-sony-wh-ch520.png</t>
+  </si>
+  <si>
+    <t>Tai nghe Bluetooth chụp tai Sony WH-1000XM4</t>
+  </si>
+  <si>
+    <t>6.690.000đ</t>
+  </si>
+  <si>
+    <t>tai-nghe-chup-tai-sony-wh-1000xm4.png</t>
+  </si>
+  <si>
+    <t>Tai nghe Bluetooth chụp tai Sony WH-CH720N</t>
+  </si>
+  <si>
+    <t>tai-nghe-chup-tai-sony-wh-ch720n.png</t>
+  </si>
+  <si>
+    <t>Tai nghe chụp tai Sony WH-ULT900N</t>
+  </si>
+  <si>
+    <t>tai-nghe-chup-tai-sony-wh-ult900n.png</t>
+  </si>
+  <si>
+    <t>Tai nghe Gaming chụp tai Sony Inzone H9</t>
+  </si>
+  <si>
+    <t>5.850.000đ</t>
+  </si>
+  <si>
+    <t>tai-nghe-chup-tai-gaming-sony-inzone-h9.png</t>
+  </si>
+  <si>
+    <t>Tai nghe chụp tai Gaming Sony Inzone H3</t>
+  </si>
+  <si>
+    <t>2.290.000đ</t>
+  </si>
+  <si>
+    <t>tai-nghe-chup-tai-gaming-sony-inzone-h3.png</t>
+  </si>
+  <si>
+    <t>Tai nghe chụp tai Sony MDR-ZX110AP</t>
+  </si>
+  <si>
+    <t>590.000đ</t>
+  </si>
+  <si>
+    <t>sony-mdr-zx110ap.png</t>
+  </si>
+  <si>
+    <t>Tai nghe Gaming chụp tai không dây Sony INZONE H5</t>
+  </si>
+  <si>
+    <t>3.790.000đ</t>
+  </si>
+  <si>
+    <t>tai-nghe-chup-tai-sony-inzone-h5.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,6 +1179,33 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFCB4242"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -525,7 +1227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -538,6 +1240,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -872,10 +1581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78FA83E-780C-45B1-B655-14EE4F484D1D}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="G120" workbookViewId="0">
+      <selection activeCell="M128" sqref="M128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1000,11 +1709,11 @@
         <v>17</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K41" si="0">SUBSTITUTE(SUBSTITUTE(TRIM(D3),".",""),"đ","")</f>
+        <f t="shared" ref="K3:K66" si="0">SUBSTITUTE(SUBSTITUTE(TRIM(D3),".",""),"đ","")</f>
         <v>4990000</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:N41" si="1">"("""&amp;A3&amp;""","""&amp;B3&amp;""","""&amp;C3&amp;""","""&amp;K3&amp;""","""&amp;E3&amp;""","""&amp;F3&amp;""","""&amp;G3&amp;""","""&amp;J3&amp;H3&amp;""","""&amp;I3&amp;"""),"</f>
+        <f t="shared" ref="N3:N66" si="1">"("""&amp;A3&amp;""","""&amp;B3&amp;""","""&amp;C3&amp;""","""&amp;K3&amp;""","""&amp;E3&amp;""","""&amp;F3&amp;""","""&amp;G3&amp;""","""&amp;J3&amp;H3&amp;""","""&amp;I3&amp;"""),"</f>
         <v>("phone","samsung","Samsung Galaxy A15","4990000","128GB","1","China","images/galaxy-a15-xanh-01.png","1"),</v>
       </c>
     </row>
@@ -2488,45 +3197,3491 @@
         <v>("phone","xiaomi","Xiaomi Redmi 9A","2490000","128GB","1","China","images/redmi_9a.png","1"),</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="41" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="E41" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="8">
+        <v>1</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41" t="s">
-        <v>17</v>
-      </c>
-      <c r="K41" t="str">
+      <c r="I41" s="8">
+        <v>1</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="8" t="str">
         <f t="shared" si="0"/>
         <v>6390000</v>
       </c>
-      <c r="N41" t="str">
+      <c r="N41" s="8" t="str">
         <f t="shared" si="1"/>
         <v>("phone","xiaomi","Xiaomi Redmi Note 13 Pro","6390000","128GB","1","China","images/xiaomi-redmi-note-13-pro-4g_13__1_3.png","1"),</v>
       </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" t="s">
+        <v>136</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>22990000</v>
+      </c>
+      <c r="N42" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>("phone","oppo","OPPO Find X8","22990000","128GB","1","China","images/dien-thoai-oppo-find-x8-xam-1.png","1"),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" t="s">
+        <v>138</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>4990000</v>
+      </c>
+      <c r="N43" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>("phone","oppo","OPPO A3","4990000","128GB","1","China","images/oppo-a3.png","1"),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" t="s">
+        <v>140</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>12990000</v>
+      </c>
+      <c r="N44" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>("phone","oppo","OPPO Reno12 5G","12990000","128GB","1","China","images/oppo-reno12-5g.png","1"),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" t="s">
+        <v>143</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>9490000</v>
+      </c>
+      <c r="N45" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>("phone","oppo","OPPO Reno12 F 5G","9490000","128GB","1","China","images/oppo-reno12-f-5g.png","1"),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" t="s">
+        <v>146</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>19990000</v>
+      </c>
+      <c r="N46" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>("phone","oppo","OPPO Reno10 Pro+ 5G","19990000","128GB","1","China","images/oppo-reno10-pro-plus-tim.png","1"),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" t="s">
+        <v>148</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>10990000</v>
+      </c>
+      <c r="N47" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>("phone","oppo","OPPO Reno10 5G","10990000","128GB","1","China","images/oppo-reno10.png","1"),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" t="s">
+        <v>150</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>19990000</v>
+      </c>
+      <c r="N48" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>("phone","oppo","OPPO Find X5 Pro","19990000","128GB","1","China","images/oppo-find-x5-pro.png","1"),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" t="s">
+        <v>153</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>7490000</v>
+      </c>
+      <c r="N49" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>("phone","oppo","OPPO A79 5G","7490000","128GB","1","China","images/oppo-a79-tim.png","1"),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" t="s">
+        <v>155</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>3990000</v>
+      </c>
+      <c r="N50" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>("phone","oppo","OPPO A18","3990000","128GB","1","China","images/oppo-a18-den.png","1"),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" t="s">
+        <v>158</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>44990000</v>
+      </c>
+      <c r="N51" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>("phone","oppo","OPPO Find N3","44990000","128GB","1","China","images/oppo-find-n3.png","1"),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" t="s">
+        <v>161</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>4490000</v>
+      </c>
+      <c r="N52" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>("phone","oppo","OPPO A38","4490000","128GB","1","China","images/oppo-a38.png","1"),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" t="s">
+        <v>163</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>26990000</v>
+      </c>
+      <c r="N53" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>("phone","oppo","OPPO Find X3 Pro 5G","26990000","128GB","1","China","images/oppo-find-x3-pro_1_1.png","1"),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" t="s">
+        <v>165</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>9490000</v>
+      </c>
+      <c r="N54" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>("phone","oppo","OPPO Reno6 Z 5G","9490000","128GB","1","China","images/oppo_reno6.png","1"),</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" t="s">
+        <v>167</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>3290000</v>
+      </c>
+      <c r="N55" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>("phone","oppo","OPPO A17K","3290000","128GB","1","China","images/oppo-a17k.png","1"),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" t="s">
+        <v>171</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>750000</v>
+      </c>
+      <c r="N56" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>("phone","nokia","Nokia 110 4G Pro","750000","128GB","1","China","images/nokia-110-4g-pro_1__1.png","1"),</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" t="s">
+        <v>174</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>990000</v>
+      </c>
+      <c r="N57" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>("phone","nokia","Nokia 220 4G","990000","128GB","1","China","images/nokia-220-4g_6_.png","1"),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" t="s">
+        <v>177</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>650000</v>
+      </c>
+      <c r="N58" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>("phone","nokia","Nokia HMD 105 4G","650000","128GB","1","China","images/nokia-hmd-105-4g_3_.png","1"),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" t="s">
+        <v>180</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>1550000</v>
+      </c>
+      <c r="N59" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>("phone","nokia","Nokia 3210 4G","1550000","128GB","1","China","images/nokia-3210-4g.png","1"),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" t="s">
+        <v>182</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K60" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>3990000</v>
+      </c>
+      <c r="N60" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>("phone","nokia","Nokia G22","3990000","128GB","1","China","images/nokia-g22.png","1"),</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>183</v>
+      </c>
+      <c r="B61" t="s">
+        <v>184</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" t="s">
+        <v>188</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>14990000</v>
+      </c>
+      <c r="N61" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>("laptop","acer","Laptop Acer Aspire 3 Spin 14","14990000","128GB","1","China","images/laptop-acer-aspire-3-spin-14.png","1"),</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62" t="s">
+        <v>191</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K62" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>27990000</v>
+      </c>
+      <c r="N62" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>("laptop","acer","Laptop Gaming Acer Nitro 5 Tiger","27990000","128GB","1","China","images/laptop-acer-nitro-5-tiger.png","1"),</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>183</v>
+      </c>
+      <c r="B63" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" t="s">
+        <v>193</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K63" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>23990000</v>
+      </c>
+      <c r="N63" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>("laptop","acer","Laptop Acer Gaming Aspire 7","23990000","128GB","1","China","images/laptop-acer-aspire-7.png","1"),</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>183</v>
+      </c>
+      <c r="B64" t="s">
+        <v>184</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" t="s">
+        <v>196</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>17</v>
+      </c>
+      <c r="K64" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>20490000</v>
+      </c>
+      <c r="N64" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>("laptop","acer","Laptop Acer Gaming Aspire 5","20490000","128GB","1","China","images/laptop-acer-aspire-5.png","1"),</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>183</v>
+      </c>
+      <c r="B65" t="s">
+        <v>184</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" t="s">
+        <v>198</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65" t="s">
+        <v>17</v>
+      </c>
+      <c r="K65" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>23990000</v>
+      </c>
+      <c r="N65" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>("laptop","acer","Laptop Gaming Acer Nitro 5","23990000","128GB","1","China","images/laptop-acer-nitro-5.png","1"),</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66" t="s">
+        <v>184</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" t="s">
+        <v>201</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>21490000</v>
+      </c>
+      <c r="N66" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>("laptop","acer","Laptop Gaming Acer Nitro V","21490000","128GB","1","China","images/laptop-acer-nitro-V.png","1"),</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>183</v>
+      </c>
+      <c r="B67" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" t="s">
+        <v>203</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" s="11" t="str">
+        <f t="shared" ref="K67:K127" si="2">SUBSTITUTE(SUBSTITUTE(TRIM(D67),".",""),"đ","")</f>
+        <v>11990000</v>
+      </c>
+      <c r="N67" s="11" t="str">
+        <f t="shared" ref="N67:N127" si="3">"("""&amp;A67&amp;""","""&amp;B67&amp;""","""&amp;C67&amp;""","""&amp;K67&amp;""","""&amp;E67&amp;""","""&amp;F67&amp;""","""&amp;G67&amp;""","""&amp;J67&amp;H67&amp;""","""&amp;I67&amp;"""),"</f>
+        <v>("laptop","acer","Laptop Acer Aspire 3","11990000","128GB","1","China","images/laptop-acer-aspire-3.png","1"),</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>183</v>
+      </c>
+      <c r="B68" t="s">
+        <v>184</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68" t="s">
+        <v>205</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68" t="s">
+        <v>17</v>
+      </c>
+      <c r="K68" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>19990000</v>
+      </c>
+      <c r="N68" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","acer","Laptop Acer Swift Lite 14 AI","19990000","128GB","1","China","images/laptop-acer-swift-lite-14-ai.png","1"),</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>183</v>
+      </c>
+      <c r="B69" t="s">
+        <v>184</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69" t="s">
+        <v>207</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>14990000</v>
+      </c>
+      <c r="N69" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","acer","Laptop Acer Aspire Lite","14990000","128GB","1","China","images/laptop-acer-aspire-lite.png","1"),</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>183</v>
+      </c>
+      <c r="B70" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" t="s">
+        <v>210</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70" t="s">
+        <v>17</v>
+      </c>
+      <c r="K70" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>24990000</v>
+      </c>
+      <c r="N70" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","apple","Apple MacBook Air M2 2024 8CPU","24990000","128GB","1","China","images/macbook-air-m2-2022.png","1"),</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>183</v>
+      </c>
+      <c r="B71" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
+        <v>9</v>
+      </c>
+      <c r="H71" t="s">
+        <v>212</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>22990000</v>
+      </c>
+      <c r="N71" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","apple","Apple MacBook Air M1","22990000","128GB","1","China","images/macbook-air-m1-2020.png","1"),</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>183</v>
+      </c>
+      <c r="B72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72" t="s">
+        <v>214</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72" t="s">
+        <v>17</v>
+      </c>
+      <c r="K72" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>27990000</v>
+      </c>
+      <c r="N72" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","apple","MacBook Air M3 13 inch 2024","27990000","128GB","1","China","images/macbook-air-m3-13-inch-2024.png","1"),</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>183</v>
+      </c>
+      <c r="B73" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" t="s">
+        <v>217</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>17</v>
+      </c>
+      <c r="K73" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>39990000</v>
+      </c>
+      <c r="N73" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","apple","MacBook Pro 14 M3","39990000","128GB","1","China","images/macbook-pro-14-inch-m3-2023.png","1"),</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>183</v>
+      </c>
+      <c r="B74" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" t="s">
+        <v>220</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>17</v>
+      </c>
+      <c r="K74" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>49990000</v>
+      </c>
+      <c r="N74" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","apple","MacBook Pro 14 M4 Pro","49990000","128GB","1","China","images/macbook-pro-14-inch-m4-pro.png","1"),</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>183</v>
+      </c>
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" t="s">
+        <v>223</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>102490000</v>
+      </c>
+      <c r="N75" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","apple","MacBook Pro 16 M3 Max","102490000","128GB","1","China","images/macbook-pro-16-inch-m3-max-2023.png","1"),</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>183</v>
+      </c>
+      <c r="B76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="s">
+        <v>9</v>
+      </c>
+      <c r="H76" t="s">
+        <v>225</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76" t="s">
+        <v>17</v>
+      </c>
+      <c r="K76" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>27990000</v>
+      </c>
+      <c r="N76" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","apple","MacBook Air 15 inch M2 2023","27990000","128GB","1","China","images/macbook-air-15-inch-m2-2023.png","1"),</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>183</v>
+      </c>
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="s">
+        <v>9</v>
+      </c>
+      <c r="H77" t="s">
+        <v>228</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>41990000</v>
+      </c>
+      <c r="N77" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","apple","Apple MacBook Pro 13 Touch Bar M1","41990000","128GB","1","China","images/macbook-pro-13-inch-touch-bar-m1-2020.png","1"),</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>183</v>
+      </c>
+      <c r="B78" t="s">
+        <v>229</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78" t="s">
+        <v>232</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78" t="s">
+        <v>17</v>
+      </c>
+      <c r="K78" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>16490000</v>
+      </c>
+      <c r="N78" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","asus","Laptop ASUS Vivobook 15","16490000","128GB","1","China","images/laptop-asus-vivobook-15.png","1"),</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>183</v>
+      </c>
+      <c r="B79" t="s">
+        <v>229</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="s">
+        <v>9</v>
+      </c>
+      <c r="H79" t="s">
+        <v>234</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>20490000</v>
+      </c>
+      <c r="N79" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","asus","Laptop ASUS Vivobook 14","20490000","128GB","1","China","images/laptop-asus-vivobook-14.png","1"),</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>183</v>
+      </c>
+      <c r="B80" t="s">
+        <v>229</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" t="s">
+        <v>237</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80" t="s">
+        <v>17</v>
+      </c>
+      <c r="K80" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>14490000</v>
+      </c>
+      <c r="N80" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","asus","Laptop ASUS Vivobook GO 15","14490000","128GB","1","China","images/laptop-asus-vivobook-go-15.png","1"),</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>183</v>
+      </c>
+      <c r="B81" t="s">
+        <v>229</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="s">
+        <v>9</v>
+      </c>
+      <c r="H81" t="s">
+        <v>240</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>17</v>
+      </c>
+      <c r="K81" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>25290000</v>
+      </c>
+      <c r="N81" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","asus","Laptop ASUS Gaming VivoBook","25290000","128GB","1","China","images/laptop-asus-gaming-vivobook.png","1"),</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>183</v>
+      </c>
+      <c r="B82" t="s">
+        <v>229</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82" t="s">
+        <v>243</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82" t="s">
+        <v>17</v>
+      </c>
+      <c r="K82" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>25990000</v>
+      </c>
+      <c r="N82" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","asus","Laptop ASUS TUF Gaming F15","25990000","128GB","1","China","images/laptop-asus-tuf-gaming.png","1"),</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>183</v>
+      </c>
+      <c r="B83" t="s">
+        <v>229</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="s">
+        <v>9</v>
+      </c>
+      <c r="H83" t="s">
+        <v>245</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83" t="s">
+        <v>17</v>
+      </c>
+      <c r="K83" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>23490000</v>
+      </c>
+      <c r="N83" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","asus","Laptop ASUS TUF Gaming A15","23490000","128GB","1","China","images/laptop-asus-tuf-gaming-a15.png","1"),</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>183</v>
+      </c>
+      <c r="B84" t="s">
+        <v>229</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>9</v>
+      </c>
+      <c r="H84" t="s">
+        <v>247</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84" t="s">
+        <v>17</v>
+      </c>
+      <c r="K84" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>28990000</v>
+      </c>
+      <c r="N84" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","asus","Laptop ASUS Zenbook 14 Oled","28990000","128GB","1","China","images/laptop-asus-zenbook-14-oled.png","1"),</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>183</v>
+      </c>
+      <c r="B85" t="s">
+        <v>229</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="s">
+        <v>9</v>
+      </c>
+      <c r="H85" t="s">
+        <v>249</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>26990000</v>
+      </c>
+      <c r="N85" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","asus","Laptop ASUS Vivobook S 15","26990000","128GB","1","China","images/laptop-asus-vivobook-s-15.png","1"),</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>183</v>
+      </c>
+      <c r="B86" t="s">
+        <v>229</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>9</v>
+      </c>
+      <c r="H86" t="s">
+        <v>252</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86" t="s">
+        <v>17</v>
+      </c>
+      <c r="K86" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>38990000</v>
+      </c>
+      <c r="N86" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","asus","Laptop ASUS ROG Strix G16","38990000","128GB","1","China","images/laptop-asus-rog-strix-g16.png","1"),</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>183</v>
+      </c>
+      <c r="B87" t="s">
+        <v>253</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="s">
+        <v>9</v>
+      </c>
+      <c r="H87" t="s">
+        <v>254</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87" t="s">
+        <v>17</v>
+      </c>
+      <c r="K87" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>13990000</v>
+      </c>
+      <c r="N87" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","dell","Laptop Dell Inspiron 15 3520","13990000","128GB","1","China","images/laptop-dell-inspiron-15.png","1"),</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>183</v>
+      </c>
+      <c r="B88" t="s">
+        <v>253</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="s">
+        <v>9</v>
+      </c>
+      <c r="H88" t="s">
+        <v>256</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88" t="s">
+        <v>17</v>
+      </c>
+      <c r="K88" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>11990000</v>
+      </c>
+      <c r="N88" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","dell","Laptop Dell Vostro 3520","11990000","128GB","1","China","images/laptop-dell-vostro-3520.png","1"),</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>183</v>
+      </c>
+      <c r="B89" t="s">
+        <v>253</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" t="s">
+        <v>9</v>
+      </c>
+      <c r="H89" t="s">
+        <v>260</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89" t="s">
+        <v>17</v>
+      </c>
+      <c r="K89" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>18990000</v>
+      </c>
+      <c r="N89" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","dell","Laptop Dell Latitude 3540","18990000","128GB","1","China","images/laptop-dell-latitude-3540.png","1"),</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>183</v>
+      </c>
+      <c r="B90" t="s">
+        <v>253</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" t="s">
+        <v>9</v>
+      </c>
+      <c r="H90" t="s">
+        <v>262</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90" t="s">
+        <v>17</v>
+      </c>
+      <c r="K90" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>22990000</v>
+      </c>
+      <c r="N90" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","dell","Laptop Dell Inspiron 15 3530","22990000","128GB","1","China","images/laptop-dell-inspiron-15-3530.png","1"),</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" t="s">
+        <v>253</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" t="s">
+        <v>9</v>
+      </c>
+      <c r="H91" t="s">
+        <v>265</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91" t="s">
+        <v>17</v>
+      </c>
+      <c r="K91" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>32490000</v>
+      </c>
+      <c r="N91" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","dell","Laptop Dell Latitude 5550","32490000","128GB","1","China","images/laptop-dell-latitude-5550.png","1"),</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>183</v>
+      </c>
+      <c r="B92" t="s">
+        <v>253</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" t="s">
+        <v>9</v>
+      </c>
+      <c r="H92" t="s">
+        <v>267</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92" t="s">
+        <v>17</v>
+      </c>
+      <c r="K92" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>28990000</v>
+      </c>
+      <c r="N92" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","dell","Laptop Dell Inspiron 14 5440","28990000","128GB","1","China","images/laptop-dell-inspiron-14-5440.png","1"),</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>183</v>
+      </c>
+      <c r="B93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93" t="s">
+        <v>9</v>
+      </c>
+      <c r="H93" t="s">
+        <v>269</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93" t="s">
+        <v>17</v>
+      </c>
+      <c r="K93" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>13990000</v>
+      </c>
+      <c r="N93" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","dell","Laptop Dell Inspiron 15 3525","13990000","128GB","1","China","images/laptop-dell-inspiron-15-3525.png","1"),</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>183</v>
+      </c>
+      <c r="B94" t="s">
+        <v>270</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94" t="s">
+        <v>272</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94" t="s">
+        <v>17</v>
+      </c>
+      <c r="K94" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>11990000</v>
+      </c>
+      <c r="N94" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","hp","Laptop HP 15S-FQ5231TU","11990000","128GB","1","China","images/laptop-hp-15s-fq5231tu.png","1"),</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>183</v>
+      </c>
+      <c r="B95" t="s">
+        <v>270</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95" t="s">
+        <v>9</v>
+      </c>
+      <c r="H95" t="s">
+        <v>275</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95" t="s">
+        <v>17</v>
+      </c>
+      <c r="K95" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>19790000</v>
+      </c>
+      <c r="N95" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","hp","Laptop HP Pavilion 15-EG2083TU","19790000","128GB","1","China","images/laptop-hp-15-EG2083TU.png","1"),</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>183</v>
+      </c>
+      <c r="B96" t="s">
+        <v>270</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96" t="s">
+        <v>9</v>
+      </c>
+      <c r="H96" t="s">
+        <v>277</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96" t="s">
+        <v>17</v>
+      </c>
+      <c r="K96" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>24990000</v>
+      </c>
+      <c r="N96" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","hp","Laptop HP Pavilion X360 14-EK2017TU","24990000","128GB","1","China","images/laptop-hp-pavilion-x360-14-ek2017tu.png","1"),</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>183</v>
+      </c>
+      <c r="B97" t="s">
+        <v>270</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97" t="s">
+        <v>9</v>
+      </c>
+      <c r="H97" t="s">
+        <v>280</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97" t="s">
+        <v>17</v>
+      </c>
+      <c r="K97" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>29890000</v>
+      </c>
+      <c r="N97" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","hp","Laptop HP Envy X360 2IN1 14-FC0162TU","29890000","128GB","1","China","images/laptop-hp-envy-x360-2in1-14-fc0162tu.png","1"),</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>183</v>
+      </c>
+      <c r="B98" t="s">
+        <v>270</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" t="s">
+        <v>9</v>
+      </c>
+      <c r="H98" t="s">
+        <v>282</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98" t="s">
+        <v>17</v>
+      </c>
+      <c r="K98" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>16990000</v>
+      </c>
+      <c r="N98" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","hp","Laptop HP 240 G9 9E5W3PT","16990000","128GB","1","China","images/laptop-hp-240-g9-9e5w3pt.png","1"),</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>183</v>
+      </c>
+      <c r="B99" t="s">
+        <v>270</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99" t="s">
+        <v>9</v>
+      </c>
+      <c r="H99" t="s">
+        <v>284</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99" t="s">
+        <v>17</v>
+      </c>
+      <c r="K99" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>19990000</v>
+      </c>
+      <c r="N99" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","hp","Laptop HP Elitebook 630 G9 6M142PA","19990000","128GB","1","China","images/laptop-hp-elitebook-630-g9-6m142pa.png","1"),</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>183</v>
+      </c>
+      <c r="B100" t="s">
+        <v>270</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100" t="s">
+        <v>9</v>
+      </c>
+      <c r="H100" t="s">
+        <v>286</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100" t="s">
+        <v>17</v>
+      </c>
+      <c r="K100" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>12990000</v>
+      </c>
+      <c r="N100" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","hp","Laptop HP 15 250 G8 85C69EA","12990000","128GB","1","China","images/laptop-hp-15-250-g8-85c69ea.png","1"),</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>183</v>
+      </c>
+      <c r="B101" t="s">
+        <v>270</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101" t="s">
+        <v>9</v>
+      </c>
+      <c r="H101" t="s">
+        <v>289</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101" t="s">
+        <v>17</v>
+      </c>
+      <c r="K101" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>24490000</v>
+      </c>
+      <c r="N101" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","hp","Laptop HP Gaming Victus 15-FB1023AX 94F20PA","24490000","128GB","1","China","images/laptop-hp-gaming-victus-15-fb1023ax-94f20pa.png","1"),</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>183</v>
+      </c>
+      <c r="B102" t="s">
+        <v>270</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102" t="s">
+        <v>9</v>
+      </c>
+      <c r="H102" t="s">
+        <v>292</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102" t="s">
+        <v>17</v>
+      </c>
+      <c r="K102" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>21290000</v>
+      </c>
+      <c r="N102" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","hp","Laptop HP Pavilion 15-EG3093TU 8C5L4PA","21290000","128GB","1","China","images/laptop-hp-pavilion-15-eg3093tu-8c5l4pa.png","1"),</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>183</v>
+      </c>
+      <c r="B103" t="s">
+        <v>293</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103" t="s">
+        <v>9</v>
+      </c>
+      <c r="H103" t="s">
+        <v>295</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103" t="s">
+        <v>17</v>
+      </c>
+      <c r="K103" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>23990000</v>
+      </c>
+      <c r="N103" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","lenovo","Laptop Lenovo LOQ 15IAX9","23990000","128GB","1","China","images/laptop-lenovo-loq-15iax9.png","1"),</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>183</v>
+      </c>
+      <c r="B104" t="s">
+        <v>293</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" t="s">
+        <v>9</v>
+      </c>
+      <c r="H104" t="s">
+        <v>297</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104" t="s">
+        <v>17</v>
+      </c>
+      <c r="K104" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>24990000</v>
+      </c>
+      <c r="N104" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","lenovo","Laptop Lenovo IdeaPad Slim 5 14Q8X9","24990000","128GB","1","China","images/laptop-lenovo-ideapad-slim-5-14q8x9.png","1"),</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>183</v>
+      </c>
+      <c r="B105" t="s">
+        <v>293</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" t="s">
+        <v>9</v>
+      </c>
+      <c r="H105" t="s">
+        <v>300</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105" t="s">
+        <v>17</v>
+      </c>
+      <c r="K105" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>15490000</v>
+      </c>
+      <c r="N105" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","lenovo","Laptop Lenovo IdeaPad Slim 3 14IAH8","15490000","128GB","1","China","images/laptop-lenovo-ideapad-slim-3-14iah8.png","1"),</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>183</v>
+      </c>
+      <c r="B106" t="s">
+        <v>293</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" t="s">
+        <v>9</v>
+      </c>
+      <c r="H106" t="s">
+        <v>303</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106" t="s">
+        <v>17</v>
+      </c>
+      <c r="K106" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>37990000</v>
+      </c>
+      <c r="N106" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","lenovo","Laptop Lenovo Legion 5 15IRX9","37990000","128GB","1","China","images/laptop-lenovo-legion-5-15irx9.png","1"),</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>183</v>
+      </c>
+      <c r="B107" t="s">
+        <v>293</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107" t="s">
+        <v>9</v>
+      </c>
+      <c r="H107" t="s">
+        <v>305</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107" t="s">
+        <v>17</v>
+      </c>
+      <c r="K107" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>22990000</v>
+      </c>
+      <c r="N107" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","lenovo","Laptop Lenovo ThinkPad E14 GEN 5","22990000","128GB","1","China","images/laptop-lenovo-thinkpad-e14-gen-5.png","1"),</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>183</v>
+      </c>
+      <c r="B108" t="s">
+        <v>293</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108" t="s">
+        <v>9</v>
+      </c>
+      <c r="H108" t="s">
+        <v>307</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108" t="s">
+        <v>17</v>
+      </c>
+      <c r="K108" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>11990000</v>
+      </c>
+      <c r="N108" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","lenovo","Laptop Lenovo IdeaPad 1 14ALC7","11990000","128GB","1","China","images/laptop-lenovo-ideapad-1-14alc7.png","1"),</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>183</v>
+      </c>
+      <c r="B109" t="s">
+        <v>293</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109" t="s">
+        <v>9</v>
+      </c>
+      <c r="H109" t="s">
+        <v>309</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109" t="s">
+        <v>17</v>
+      </c>
+      <c r="K109" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>20490000</v>
+      </c>
+      <c r="N109" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","lenovo","Laptop Lenovo ThinkBook 16 G6 IRL","20490000","128GB","1","China","images/laptop-lenovo-thinkbook-16-g6-irl.png","1"),</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>183</v>
+      </c>
+      <c r="B110" t="s">
+        <v>293</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110" t="s">
+        <v>9</v>
+      </c>
+      <c r="H110" t="s">
+        <v>312</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110" t="s">
+        <v>17</v>
+      </c>
+      <c r="K110" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>42990000</v>
+      </c>
+      <c r="N110" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","lenovo","Laptop Lenovo Yoga Slim 7 15ILL9","42990000","128GB","1","China","images/laptop-lenovo-yoga-slim-7-15ill9.png","1"),</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>183</v>
+      </c>
+      <c r="B111" t="s">
+        <v>293</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111" t="s">
+        <v>9</v>
+      </c>
+      <c r="H111" t="s">
+        <v>314</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111" t="s">
+        <v>17</v>
+      </c>
+      <c r="K111" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>30990000</v>
+      </c>
+      <c r="N111" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","lenovo","Laptop Lenovo Yoga Slim 7 14IMH9","30990000","128GB","1","China","images/laptop-lenovo-yoga-slim-7-14imh9.png","1"),</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>183</v>
+      </c>
+      <c r="B112" t="s">
+        <v>315</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112" t="s">
+        <v>9</v>
+      </c>
+      <c r="H112" t="s">
+        <v>318</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112" t="s">
+        <v>17</v>
+      </c>
+      <c r="K112" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>17990000</v>
+      </c>
+      <c r="N112" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","msi","Laptop MSI Gaming Thin 15 B12UCX","17990000","128GB","1","China","images/laptop-msi-gaming-thin-15-b12ucx.png","1"),</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>183</v>
+      </c>
+      <c r="B113" t="s">
+        <v>315</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113" t="s">
+        <v>9</v>
+      </c>
+      <c r="H113" t="s">
+        <v>321</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113" t="s">
+        <v>17</v>
+      </c>
+      <c r="K113" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>20990000</v>
+      </c>
+      <c r="N113" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","msi","Laptop MSI Gaming GF63 Thin 11UC","20990000","128GB","1","China","images/laptop-msi-gaming-gf63-thin-11uc.png","1"),</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>183</v>
+      </c>
+      <c r="B114" t="s">
+        <v>315</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114" t="s">
+        <v>9</v>
+      </c>
+      <c r="H114" t="s">
+        <v>323</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114" t="s">
+        <v>17</v>
+      </c>
+      <c r="K114" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>36990000</v>
+      </c>
+      <c r="N114" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","msi","Laptop MSI Katana 15 B13VFK","36990000","128GB","1","China","images/laptop-msi-katana-15-b13vfk.png","1"),</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>183</v>
+      </c>
+      <c r="B115" t="s">
+        <v>315</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115" t="s">
+        <v>9</v>
+      </c>
+      <c r="H115" t="s">
+        <v>326</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115" t="s">
+        <v>17</v>
+      </c>
+      <c r="K115" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>21990000</v>
+      </c>
+      <c r="N115" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","msi","Laptop MSI Gaming Thin 15 B13UC","21990000","128GB","1","China","images/laptop-msi-gaming-thin-15-b13uc.png","1"),</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>183</v>
+      </c>
+      <c r="B116" t="s">
+        <v>315</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116" t="s">
+        <v>9</v>
+      </c>
+      <c r="H116" t="s">
+        <v>328</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116" t="s">
+        <v>17</v>
+      </c>
+      <c r="K116" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>18990000</v>
+      </c>
+      <c r="N116" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","msi","Laptop gaming MSI Thin A15 B7UCX","18990000","128GB","1","China","images/laptop-msi-gaming-thin-a15-b7ucx.png","1"),</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>183</v>
+      </c>
+      <c r="B117" t="s">
+        <v>315</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117" t="s">
+        <v>9</v>
+      </c>
+      <c r="H117" t="s">
+        <v>330</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117" t="s">
+        <v>17</v>
+      </c>
+      <c r="K117" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>28990000</v>
+      </c>
+      <c r="N117" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","msi","Laptop MSI Gaming Bravo 15 C7VFK","28990000","128GB","1","China","images/laptop-msi-gaming-bravo-15-c7vfk.png","1"),</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>183</v>
+      </c>
+      <c r="B118" t="s">
+        <v>315</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118" t="s">
+        <v>9</v>
+      </c>
+      <c r="H118" t="s">
+        <v>332</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118" t="s">
+        <v>17</v>
+      </c>
+      <c r="K118" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>19990000</v>
+      </c>
+      <c r="N118" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("laptop","msi","Laptop MSI Cyborg 15 A12UCX","19990000","128GB","1","China","images/laptop-msi-cyborg-15-a12ucx.png","1"),</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>334</v>
+      </c>
+      <c r="B119" t="s">
+        <v>335</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119" t="s">
+        <v>9</v>
+      </c>
+      <c r="H119" t="s">
+        <v>336</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119" t="s">
+        <v>17</v>
+      </c>
+      <c r="K119" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>7990000</v>
+      </c>
+      <c r="N119" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("headphone","sony","Tai nghe Bluetooth chụp tai Sony WH-1000XM5","7990000","128GB","1","China","images/tai-nghe-chup-tai-sony-wh-1000xm5.png","1"),</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>334</v>
+      </c>
+      <c r="B120" t="s">
+        <v>335</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120" t="s">
+        <v>9</v>
+      </c>
+      <c r="H120" t="s">
+        <v>339</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120" t="s">
+        <v>17</v>
+      </c>
+      <c r="K120" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1290000</v>
+      </c>
+      <c r="N120" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("headphone","sony","Tai nghe Bluetooth chụp tai Sony WH-CH520","1290000","128GB","1","China","images/tai-nghe-chup-tai-sony-wh-ch520.png","1"),</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>334</v>
+      </c>
+      <c r="B121" t="s">
+        <v>335</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121" t="s">
+        <v>9</v>
+      </c>
+      <c r="H121" t="s">
+        <v>342</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121" t="s">
+        <v>17</v>
+      </c>
+      <c r="K121" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>6690000</v>
+      </c>
+      <c r="N121" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("headphone","sony","Tai nghe Bluetooth chụp tai Sony WH-1000XM4","6690000","128GB","1","China","images/tai-nghe-chup-tai-sony-wh-1000xm4.png","1"),</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>334</v>
+      </c>
+      <c r="B122" t="s">
+        <v>335</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122" t="s">
+        <v>9</v>
+      </c>
+      <c r="H122" t="s">
+        <v>344</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122" t="s">
+        <v>17</v>
+      </c>
+      <c r="K122" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>2990000</v>
+      </c>
+      <c r="N122" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("headphone","sony","Tai nghe Bluetooth chụp tai Sony WH-CH720N","2990000","128GB","1","China","images/tai-nghe-chup-tai-sony-wh-ch720n.png","1"),</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>334</v>
+      </c>
+      <c r="B123" t="s">
+        <v>335</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123" t="s">
+        <v>9</v>
+      </c>
+      <c r="H123" t="s">
+        <v>346</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123" t="s">
+        <v>17</v>
+      </c>
+      <c r="K123" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>4490000</v>
+      </c>
+      <c r="N123" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("headphone","sony","Tai nghe chụp tai Sony WH-ULT900N","4490000","128GB","1","China","images/tai-nghe-chup-tai-sony-wh-ult900n.png","1"),</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>334</v>
+      </c>
+      <c r="B124" t="s">
+        <v>335</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124" t="s">
+        <v>9</v>
+      </c>
+      <c r="H124" t="s">
+        <v>349</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124" t="s">
+        <v>17</v>
+      </c>
+      <c r="K124" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>5850000</v>
+      </c>
+      <c r="N124" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("headphone","sony","Tai nghe Gaming chụp tai Sony Inzone H9","5850000","128GB","1","China","images/tai-nghe-chup-tai-gaming-sony-inzone-h9.png","1"),</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>334</v>
+      </c>
+      <c r="B125" t="s">
+        <v>335</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125" t="s">
+        <v>9</v>
+      </c>
+      <c r="H125" t="s">
+        <v>352</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125" t="s">
+        <v>17</v>
+      </c>
+      <c r="K125" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>2290000</v>
+      </c>
+      <c r="N125" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("headphone","sony","Tai nghe chụp tai Gaming Sony Inzone H3","2290000","128GB","1","China","images/tai-nghe-chup-tai-gaming-sony-inzone-h3.png","1"),</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>334</v>
+      </c>
+      <c r="B126" t="s">
+        <v>335</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126" t="s">
+        <v>9</v>
+      </c>
+      <c r="H126" t="s">
+        <v>355</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126" t="s">
+        <v>17</v>
+      </c>
+      <c r="K126" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>590000</v>
+      </c>
+      <c r="N126" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("headphone","sony","Tai nghe chụp tai Sony MDR-ZX110AP","590000","128GB","1","China","images/sony-mdr-zx110ap.png","1"),</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>334</v>
+      </c>
+      <c r="B127" t="s">
+        <v>335</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127" t="s">
+        <v>9</v>
+      </c>
+      <c r="H127" t="s">
+        <v>358</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127" t="s">
+        <v>17</v>
+      </c>
+      <c r="K127" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>3790000</v>
+      </c>
+      <c r="N127" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("headphone","sony","Tai nghe Gaming chụp tai không dây Sony INZONE H5","3790000","128GB","1","China","images/tai-nghe-chup-tai-sony-inzone-h5.png","1"),</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E128" s="1"/>
+    </row>
+    <row r="129" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E129" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\IS207-PersonalBlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E069EB1-572F-449D-A17E-996FA8928995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9DC32D-A90B-442C-BBC9-A5933DDA1D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6264" yWindow="1056" windowWidth="15672" windowHeight="9456" xr2:uid="{5C5D118A-E53C-4D7B-B5CE-8B68BFF3DF6F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5C5D118A-E53C-4D7B-B5CE-8B68BFF3DF6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="521">
   <si>
     <t>Category_id</t>
   </si>
@@ -1116,13 +1116,499 @@
   </si>
   <si>
     <t>tai-nghe-chup-tai-sony-inzone-h5.png</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Tai nghe Bluetooth Apple AirPods 4</t>
+  </si>
+  <si>
+    <t>3.350.000đ</t>
+  </si>
+  <si>
+    <t>apple-airpods-4.png</t>
+  </si>
+  <si>
+    <t>Tai nghe Bluetooth Apple AirPods Pro 2 2023 USB-C</t>
+  </si>
+  <si>
+    <t>5.690.000đ</t>
+  </si>
+  <si>
+    <t>apple-airpods-pro-2-usb-c_1_.png</t>
+  </si>
+  <si>
+    <t>Tai nghe Bluetooth Apple AirPods 2</t>
+  </si>
+  <si>
+    <t>apple-airpods-2.png</t>
+  </si>
+  <si>
+    <t>Tai nghe Bluetooth Apple AirPods 3 2022</t>
+  </si>
+  <si>
+    <t>3.590.000đ</t>
+  </si>
+  <si>
+    <t>apple-airpods-3-2022.png</t>
+  </si>
+  <si>
+    <t>Tai nghe Bluetooth Apple AirPods 3 MagSafe</t>
+  </si>
+  <si>
+    <t>3.890.000đ</t>
+  </si>
+  <si>
+    <t>apple-airpods-3.png</t>
+  </si>
+  <si>
+    <t>Tai nghe chụp tai chống ồn Apple AirPods Max 2024</t>
+  </si>
+  <si>
+    <t>apple-airpods-max-1_1.png</t>
+  </si>
+  <si>
+    <t>TAI NGHE APPLE EARPODS CỔNG LIGHTNING</t>
+  </si>
+  <si>
+    <t>500.000đ</t>
+  </si>
+  <si>
+    <t>apple-airpods-lightning.png</t>
+  </si>
+  <si>
+    <t>Tai nghe chụp tai chống ồn Apple AirPods Max</t>
+  </si>
+  <si>
+    <t>apple-airpods-max-2021.png</t>
+  </si>
+  <si>
+    <t>Tai nghe Apple EarPods USB-C</t>
+  </si>
+  <si>
+    <t>550.000đ</t>
+  </si>
+  <si>
+    <t>tai-nghe-apple-earpods-usb-c_1_.png</t>
+  </si>
+  <si>
+    <t>Tai nghe Bluetooth True Wireless Samsung Galaxy Buds2 Pro</t>
+  </si>
+  <si>
+    <t>2.590.000đ</t>
+  </si>
+  <si>
+    <t>samsung-galaxy-buds-2-pro.png</t>
+  </si>
+  <si>
+    <t>Tai nghe Bluetooth True Wireless Samsung Galaxy Buds 3 Pro</t>
+  </si>
+  <si>
+    <t>5.090.000đ</t>
+  </si>
+  <si>
+    <t>tai-nghe-samsung-galaxy-buds-3-pro.png</t>
+  </si>
+  <si>
+    <t>Tai nghe Bluetooth True Wireless Samsung Galaxy Buds FE</t>
+  </si>
+  <si>
+    <t>1.390.000đ</t>
+  </si>
+  <si>
+    <t>samsung-galaxy-buds-fe.png</t>
+  </si>
+  <si>
+    <t>Tai nghe Bluetooth True Wireless Samsung Galaxy Buds 3</t>
+  </si>
+  <si>
+    <t>samsung-galaxy-buds-3.png</t>
+  </si>
+  <si>
+    <t>samsung-galaxy-buds-2-pro-da-kich-hoat.png</t>
+  </si>
+  <si>
+    <t>Tai nghe Bluetooth True Wireless Xiaomi Redmi Buds 6 Active</t>
+  </si>
+  <si>
+    <t>490.000đ</t>
+  </si>
+  <si>
+    <t>tai-nghe-bluetooth-xiaomi-redmi-buds-6-active-spa.png</t>
+  </si>
+  <si>
+    <t>Tai nghe Bluetooth True Wireless Redmi Buds 4 Lite</t>
+  </si>
+  <si>
+    <t>390.000đ</t>
+  </si>
+  <si>
+    <t>tai-nghe-khong-day-xiaomi-redmi-buds-4-lite.png</t>
+  </si>
+  <si>
+    <t>Tai nghe Bluetooth True Wireless Xiaomi Redmi Buds 5</t>
+  </si>
+  <si>
+    <t>tai-nghe-khong-day-xiaomi-redmi-buds-5.png</t>
+  </si>
+  <si>
+    <t>Tai nghe Bluetooth True Wireless Xiaomi Redmi Buds 5 Pro</t>
+  </si>
+  <si>
+    <t>1.790.000đ</t>
+  </si>
+  <si>
+    <t>tai-nghe-khong-day-xiaomi-redmi-buds-5-pro.png</t>
+  </si>
+  <si>
+    <t>Tai nghe Bluetooth True Wireless Xiaomi Buds 5</t>
+  </si>
+  <si>
+    <t>2.190.000đ</t>
+  </si>
+  <si>
+    <t>tai-nghe-khong-day-xiaomi-buds-5.png</t>
+  </si>
+  <si>
+    <t>Tai nghe Xiaomi Mi Basic Chính hãng</t>
+  </si>
+  <si>
+    <t>140.000đ</t>
+  </si>
+  <si>
+    <t>tai-nghe-xiaomi-mi-basic-chinh-hang.png</t>
+  </si>
+  <si>
+    <t>Tai nghe có dây Xiaomi Type-C</t>
+  </si>
+  <si>
+    <t>169.000đ</t>
+  </si>
+  <si>
+    <t>tai-nghe-co-day-xiaomi-type-c.png</t>
+  </si>
+  <si>
+    <t>Tai nghe thể thao Xiaomi Openwear Stereo</t>
+  </si>
+  <si>
+    <t>tai-nghe-khong-day-xiaomi-openwear-stereo.png</t>
+  </si>
+  <si>
+    <t>Tai nghe Bluetooth True Wireless Xiaomi Buds 3T Pro</t>
+  </si>
+  <si>
+    <t>1.690.000đ</t>
+  </si>
+  <si>
+    <t>buds_3t_pro_2.png</t>
+  </si>
+  <si>
+    <t>Tai nghe Bluetooth True Wireless Gaming ROG Cetra</t>
+  </si>
+  <si>
+    <t>1.590.000đ</t>
+  </si>
+  <si>
+    <t>tai-nghe-khong-day-rog-cetra.png</t>
+  </si>
+  <si>
+    <t>Tai nghe có dây Gaming ASUS ROG Cetra II Core</t>
+  </si>
+  <si>
+    <t>840.000đ</t>
+  </si>
+  <si>
+    <t>tai-nghe-rog-cetra-ii-core.png</t>
+  </si>
+  <si>
+    <t>Tai nghe chụp tai Gaming Asus TUF H1</t>
+  </si>
+  <si>
+    <t>740.000đ</t>
+  </si>
+  <si>
+    <t>tai-nghe-chup-tai-asus-tuf-h1.png</t>
+  </si>
+  <si>
+    <t>Tai nghe chụp tai ASUS TUF Gaming H3</t>
+  </si>
+  <si>
+    <t>tai-nghe-khong-day-asus-tuf-gaming-h3.png</t>
+  </si>
+  <si>
+    <t>Tai nghe chụp tai Gaming ASUS ROG Delta S Core</t>
+  </si>
+  <si>
+    <t>tai-nghe-gaming-asus-rog-deltra-s-core.png</t>
+  </si>
+  <si>
+    <t>Tai nghe Bluetooth True Wireless Gaming Asus Rog Cetra SpeedNova</t>
+  </si>
+  <si>
+    <t>4.790.000đ</t>
+  </si>
+  <si>
+    <t>tai-nghe-asus-rog-cetra-tws-speednova_10_.png</t>
+  </si>
+  <si>
+    <t>havit</t>
+  </si>
+  <si>
+    <t>Tai nghe Bluetooth chụp tai Havit H630BT</t>
+  </si>
+  <si>
+    <t>tai-nghe-chup-tai-havit-h630bt.png</t>
+  </si>
+  <si>
+    <t>Tai nghe Bluetooth True Wireless Havit TW981</t>
+  </si>
+  <si>
+    <t>190.000đ</t>
+  </si>
+  <si>
+    <t>tai-nghe-bluetooth-havit-tw981_1_.png</t>
+  </si>
+  <si>
+    <t>Tai nghe Bluetooth True Wireless Havit TW969</t>
+  </si>
+  <si>
+    <t>199.000đ</t>
+  </si>
+  <si>
+    <t>tai-nghe-khong-day-havit-tw969.png</t>
+  </si>
+  <si>
+    <t>Tai nghe Bluetooth True Wireless Havit 982</t>
+  </si>
+  <si>
+    <t>290.000đ</t>
+  </si>
+  <si>
+    <t>tai-nghe-khong-day-havit-tw982.png</t>
+  </si>
+  <si>
+    <t>Tai nghe Bluetooth True Wireless Havit 931</t>
+  </si>
+  <si>
+    <t>249.000đ</t>
+  </si>
+  <si>
+    <t>tai-nghe-khong-day-havit-tw-931_5_.png</t>
+  </si>
+  <si>
+    <t>Tai nghe chụp tai có dây Gaming Havit H2040D</t>
+  </si>
+  <si>
+    <t>320.000đ</t>
+  </si>
+  <si>
+    <t>tai-nghe-gaming-havit-h2040d_1_.png</t>
+  </si>
+  <si>
+    <t>Tai nghe Bluetooth True Wireless Havit TW958 Pro</t>
+  </si>
+  <si>
+    <t>tai-nghe-khong-day-havit-tw958-pro_1_.png</t>
+  </si>
+  <si>
+    <t>Tai nghe Bluetooth chụp tai Havit H655BT</t>
+  </si>
+  <si>
+    <t>730.000đ</t>
+  </si>
+  <si>
+    <t>tai-nghe-chup-tai-havit-h665t_12_.png</t>
+  </si>
+  <si>
+    <t>tivi</t>
+  </si>
+  <si>
+    <t>Smart Tivi Samsung QLED 4K 50 inch 2024 (50Q60D)</t>
+  </si>
+  <si>
+    <t>11.490.000đ</t>
+  </si>
+  <si>
+    <t>smart-tivi-samsung-qled-50q60d-4k-50-inch-2024.1.png</t>
+  </si>
+  <si>
+    <t>Smart Tivi Samsung UHD 4K 43 inch UA43AU7002</t>
+  </si>
+  <si>
+    <t>smart-tivi-samsung-uhd-4k-43-inch-ua43au7002.png</t>
+  </si>
+  <si>
+    <t>Smart Tivi Samsung UHD 4K 55 INCH 2024 (55DU8000)</t>
+  </si>
+  <si>
+    <t>10.490.000đ</t>
+  </si>
+  <si>
+    <t>smart-tivi-samsung-uhd-55du8000-4k-55-inch-2024.png</t>
+  </si>
+  <si>
+    <t>Smart Tivi Samsung UHD 4K 65 INCH 2024 (65DU8000)</t>
+  </si>
+  <si>
+    <t>13.190.000đ</t>
+  </si>
+  <si>
+    <t>smart-tivi-samsung-uhd-65du8000-4k-65-inch-2024.png</t>
+  </si>
+  <si>
+    <t>Smart Tivi Samsung Crystal UHD 55 Inch (55BU8000)</t>
+  </si>
+  <si>
+    <t>smart-tivi-samsung-crystal-uhd-55-inch-55bu8000.png</t>
+  </si>
+  <si>
+    <t>Smart Tivi Samsung khung tranh 4K 55 inch 2024 (55LS03D)</t>
+  </si>
+  <si>
+    <t>smart-tivi-samsung-khung-tranh-55ls03d-4k-55-inch-2024.png</t>
+  </si>
+  <si>
+    <t>Smart Tivi Samsung QLED 75 inch (75Q60BAK)</t>
+  </si>
+  <si>
+    <t>18.490.000đ</t>
+  </si>
+  <si>
+    <t>smart-tivi-samsung-qled-75-inch-75q60bak.png</t>
+  </si>
+  <si>
+    <t>Smart Tivi Samsung Crystal UHD 85 inch (85BU8000)</t>
+  </si>
+  <si>
+    <t>26.190.000đ</t>
+  </si>
+  <si>
+    <t>smart-tivi-samsung-crystal-uhd-85-inch-85bu8000.png</t>
+  </si>
+  <si>
+    <t>Tivi Xiaomi A Pro 4K 43 inch QLED 2025</t>
+  </si>
+  <si>
+    <t>6.490.000đ</t>
+  </si>
+  <si>
+    <t>smart_tivi_qned_lg_4k_75_inch_75qned86sra.png</t>
+  </si>
+  <si>
+    <t>Tivi Xiaomi A 4K 2025 55 inch</t>
+  </si>
+  <si>
+    <t>8.490.000đ</t>
+  </si>
+  <si>
+    <t>tivi-xiaomi-a-55-inch-4k-2025.png</t>
+  </si>
+  <si>
+    <t>Tivi Xiaomi A Pro 4K 55 inch QLED 2025</t>
+  </si>
+  <si>
+    <t>tivi-xiaomi-qled-a-pro-55-inch-4k-2025.png</t>
+  </si>
+  <si>
+    <t>Tivi Xiaomi A Pro 4K 65 inch QLED 2025</t>
+  </si>
+  <si>
+    <t>12.730.000đ</t>
+  </si>
+  <si>
+    <t>tivi-xiaomi-qled-a-pro-65-inch-4k-2025.png</t>
+  </si>
+  <si>
+    <t>Tivi Xiaomi A 32 inch HD</t>
+  </si>
+  <si>
+    <t>tivi-xiaomi-a-32-inch-hd.png</t>
+  </si>
+  <si>
+    <t>Tivi Xiaomi A FHD 43 inch 2025</t>
+  </si>
+  <si>
+    <t>5.490.000đ</t>
+  </si>
+  <si>
+    <t>tivi-xiaomi-a-43-inch-fhd-2025.png</t>
+  </si>
+  <si>
+    <t>Xiaomi Smart Display S Mini LED 55 inch 2025</t>
+  </si>
+  <si>
+    <t>15.990.000đ</t>
+  </si>
+  <si>
+    <t>google-tivi-xiaomi-s-mini-led-55-inch-2025.png</t>
+  </si>
+  <si>
+    <t>Xiaomi Max 2025 85 N36V</t>
+  </si>
+  <si>
+    <t>31.990.000đ</t>
+  </si>
+  <si>
+    <t>google-tivi-xiaomi-max-85-inch-n36v-2025.png</t>
+  </si>
+  <si>
+    <t>Smart Tivi Sony 4K 55 inch KD-55X75K</t>
+  </si>
+  <si>
+    <t>12.890.000đ</t>
+  </si>
+  <si>
+    <t>smart-tivi-sony-4k-55-inch-kd-55x75k.png</t>
+  </si>
+  <si>
+    <t>Smart Tivi Sony 4K 65 inch KD-65X75K</t>
+  </si>
+  <si>
+    <t>smart_tivi_samsung_qled_55_inch_55q60bak_1_.png</t>
+  </si>
+  <si>
+    <t>Google Tivi Sony 4K 50 inch (K-50S30)</t>
+  </si>
+  <si>
+    <t>15.690.000đ</t>
+  </si>
+  <si>
+    <t>google-tivi-sony-k-50s30-4k-50-inch.png</t>
+  </si>
+  <si>
+    <t>Google Tivi Sony 4K 65 inch KD-65X80L</t>
+  </si>
+  <si>
+    <t>google-tivi-sony-kd-65x80l-4k-65-inch.png</t>
+  </si>
+  <si>
+    <t>Google Tivi Sony 4K 75 inch KD-75X80L</t>
+  </si>
+  <si>
+    <t>google-tivi-sony-kd-75x80l-4k-75-inch_6_.png</t>
+  </si>
+  <si>
+    <t>Google Tivi OLED Sony 4K 48 inch XR-48A90K</t>
+  </si>
+  <si>
+    <t>32.900.000đ</t>
+  </si>
+  <si>
+    <t>google-tivi-oled-sony-xr-48a90k-4k-48-inch_4_.png</t>
+  </si>
+  <si>
+    <t>Google Tivi OLED Sony 4K 55 inch XR-55A80L</t>
+  </si>
+  <si>
+    <t>google-tivi-oled-sony-xr-55a80l-4k-55-inch_8_.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1206,6 +1692,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF313537"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1227,7 +1728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1247,6 +1748,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1581,17 +2089,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78FA83E-780C-45B1-B655-14EE4F484D1D}">
-  <dimension ref="A1:N129"/>
+  <dimension ref="A1:N187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G120" workbookViewId="0">
-      <selection activeCell="M128" sqref="M128"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" customWidth="1"/>
     <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
@@ -4269,11 +4777,11 @@
         <v>17</v>
       </c>
       <c r="K67" s="11" t="str">
-        <f t="shared" ref="K67:K127" si="2">SUBSTITUTE(SUBSTITUTE(TRIM(D67),".",""),"đ","")</f>
+        <f t="shared" ref="K67:K130" si="2">SUBSTITUTE(SUBSTITUTE(TRIM(D67),".",""),"đ","")</f>
         <v>11990000</v>
       </c>
       <c r="N67" s="11" t="str">
-        <f t="shared" ref="N67:N127" si="3">"("""&amp;A67&amp;""","""&amp;B67&amp;""","""&amp;C67&amp;""","""&amp;K67&amp;""","""&amp;E67&amp;""","""&amp;F67&amp;""","""&amp;G67&amp;""","""&amp;J67&amp;H67&amp;""","""&amp;I67&amp;"""),"</f>
+        <f t="shared" ref="N67:N130" si="3">"("""&amp;A67&amp;""","""&amp;B67&amp;""","""&amp;C67&amp;""","""&amp;K67&amp;""","""&amp;E67&amp;""","""&amp;F67&amp;""","""&amp;G67&amp;""","""&amp;J67&amp;H67&amp;""","""&amp;I67&amp;"""),"</f>
         <v>("laptop","acer","Laptop Acer Aspire 3","11990000","128GB","1","China","images/laptop-acer-aspire-3.png","1"),</v>
       </c>
     </row>
@@ -6641,7 +7149,7 @@
       <c r="A127" t="s">
         <v>334</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="13" t="s">
         <v>335</v>
       </c>
       <c r="C127" s="1" t="s">
@@ -6678,10 +7186,2404 @@
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E128" s="1"/>
-    </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E129" s="1"/>
+      <c r="A128" t="s">
+        <v>334</v>
+      </c>
+      <c r="B128" t="s">
+        <v>79</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128" t="s">
+        <v>9</v>
+      </c>
+      <c r="H128" t="s">
+        <v>362</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128" t="s">
+        <v>17</v>
+      </c>
+      <c r="K128" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>3350000</v>
+      </c>
+      <c r="N128" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("headphone","apple","Tai nghe Bluetooth Apple AirPods 4","3350000","None","1","China","images/apple-airpods-4.png","1"),</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>334</v>
+      </c>
+      <c r="B129" t="s">
+        <v>79</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D129" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129" t="s">
+        <v>9</v>
+      </c>
+      <c r="H129" t="s">
+        <v>365</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129" t="s">
+        <v>17</v>
+      </c>
+      <c r="K129" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>5690000</v>
+      </c>
+      <c r="N129" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("headphone","apple","Tai nghe Bluetooth Apple AirPods Pro 2 2023 USB-C","5690000","None","1","China","images/apple-airpods-pro-2-usb-c_1_.png","1"),</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>334</v>
+      </c>
+      <c r="B130" t="s">
+        <v>79</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D130" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130" t="s">
+        <v>9</v>
+      </c>
+      <c r="H130" t="s">
+        <v>367</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130" t="s">
+        <v>17</v>
+      </c>
+      <c r="K130" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>2990000</v>
+      </c>
+      <c r="N130" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>("headphone","apple","Tai nghe Bluetooth Apple AirPods 2","2990000","None","1","China","images/apple-airpods-2.png","1"),</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>334</v>
+      </c>
+      <c r="B131" t="s">
+        <v>79</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131" t="s">
+        <v>9</v>
+      </c>
+      <c r="H131" t="s">
+        <v>370</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131" t="s">
+        <v>17</v>
+      </c>
+      <c r="K131" s="11" t="str">
+        <f t="shared" ref="K131:K187" si="4">SUBSTITUTE(SUBSTITUTE(TRIM(D131),".",""),"đ","")</f>
+        <v>3590000</v>
+      </c>
+      <c r="N131" s="11" t="str">
+        <f t="shared" ref="N131:N187" si="5">"("""&amp;A131&amp;""","""&amp;B131&amp;""","""&amp;C131&amp;""","""&amp;K131&amp;""","""&amp;E131&amp;""","""&amp;F131&amp;""","""&amp;G131&amp;""","""&amp;J131&amp;H131&amp;""","""&amp;I131&amp;"""),"</f>
+        <v>("headphone","apple","Tai nghe Bluetooth Apple AirPods 3 2022","3590000","None","1","China","images/apple-airpods-3-2022.png","1"),</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>334</v>
+      </c>
+      <c r="B132" t="s">
+        <v>79</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132" t="s">
+        <v>9</v>
+      </c>
+      <c r="H132" t="s">
+        <v>373</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132" t="s">
+        <v>17</v>
+      </c>
+      <c r="K132" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>3890000</v>
+      </c>
+      <c r="N132" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("headphone","apple","Tai nghe Bluetooth Apple AirPods 3 MagSafe","3890000","None","1","China","images/apple-airpods-3.png","1"),</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>334</v>
+      </c>
+      <c r="B133" t="s">
+        <v>79</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D133" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133" t="s">
+        <v>9</v>
+      </c>
+      <c r="H133" t="s">
+        <v>375</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133" t="s">
+        <v>17</v>
+      </c>
+      <c r="K133" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>12990000</v>
+      </c>
+      <c r="N133" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("headphone","apple","Tai nghe chụp tai chống ồn Apple AirPods Max 2024","12990000","None","1","China","images/apple-airpods-max-1_1.png","1"),</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>334</v>
+      </c>
+      <c r="B134" t="s">
+        <v>79</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134" t="s">
+        <v>9</v>
+      </c>
+      <c r="H134" t="s">
+        <v>378</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134" t="s">
+        <v>17</v>
+      </c>
+      <c r="K134" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>500000</v>
+      </c>
+      <c r="N134" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("headphone","apple","TAI NGHE APPLE EARPODS CỔNG LIGHTNING","500000","None","1","China","images/apple-airpods-lightning.png","1"),</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>334</v>
+      </c>
+      <c r="B135" t="s">
+        <v>79</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135" t="s">
+        <v>9</v>
+      </c>
+      <c r="H135" t="s">
+        <v>380</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135" t="s">
+        <v>17</v>
+      </c>
+      <c r="K135" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>11990000</v>
+      </c>
+      <c r="N135" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("headphone","apple","Tai nghe chụp tai chống ồn Apple AirPods Max","11990000","None","1","China","images/apple-airpods-max-2021.png","1"),</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>334</v>
+      </c>
+      <c r="B136" t="s">
+        <v>79</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136" t="s">
+        <v>9</v>
+      </c>
+      <c r="H136" t="s">
+        <v>383</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136" t="s">
+        <v>17</v>
+      </c>
+      <c r="K136" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>550000</v>
+      </c>
+      <c r="N136" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("headphone","apple","Tai nghe Apple EarPods USB-C","550000","None","1","China","images/tai-nghe-apple-earpods-usb-c_1_.png","1"),</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>334</v>
+      </c>
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137" t="s">
+        <v>9</v>
+      </c>
+      <c r="H137" t="s">
+        <v>386</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137" t="s">
+        <v>17</v>
+      </c>
+      <c r="K137" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>2590000</v>
+      </c>
+      <c r="N137" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("headphone","samsung","Tai nghe Bluetooth True Wireless Samsung Galaxy Buds2 Pro","2590000","None","1","China","images/samsung-galaxy-buds-2-pro.png","1"),</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>334</v>
+      </c>
+      <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138" t="s">
+        <v>9</v>
+      </c>
+      <c r="H138" t="s">
+        <v>389</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138" t="s">
+        <v>17</v>
+      </c>
+      <c r="K138" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>5090000</v>
+      </c>
+      <c r="N138" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("headphone","samsung","Tai nghe Bluetooth True Wireless Samsung Galaxy Buds 3 Pro","5090000","None","1","China","images/tai-nghe-samsung-galaxy-buds-3-pro.png","1"),</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>334</v>
+      </c>
+      <c r="B139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139" t="s">
+        <v>9</v>
+      </c>
+      <c r="H139" t="s">
+        <v>392</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139" t="s">
+        <v>17</v>
+      </c>
+      <c r="K139" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1390000</v>
+      </c>
+      <c r="N139" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("headphone","samsung","Tai nghe Bluetooth True Wireless Samsung Galaxy Buds FE","1390000","None","1","China","images/samsung-galaxy-buds-fe.png","1"),</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>334</v>
+      </c>
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140" t="s">
+        <v>9</v>
+      </c>
+      <c r="H140" t="s">
+        <v>394</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140" t="s">
+        <v>17</v>
+      </c>
+      <c r="K140" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>3590000</v>
+      </c>
+      <c r="N140" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("headphone","samsung","Tai nghe Bluetooth True Wireless Samsung Galaxy Buds 3","3590000","None","1","China","images/samsung-galaxy-buds-3.png","1"),</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>334</v>
+      </c>
+      <c r="B141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141" t="s">
+        <v>9</v>
+      </c>
+      <c r="H141" t="s">
+        <v>395</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141" t="s">
+        <v>17</v>
+      </c>
+      <c r="K141" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>2590000</v>
+      </c>
+      <c r="N141" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("headphone","samsung","Tai nghe Bluetooth True Wireless Samsung Galaxy Buds2 Pro","2590000","None","1","China","images/samsung-galaxy-buds-2-pro-da-kich-hoat.png","1"),</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>334</v>
+      </c>
+      <c r="B142" t="s">
+        <v>92</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142" t="s">
+        <v>9</v>
+      </c>
+      <c r="H142" t="s">
+        <v>398</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142" t="s">
+        <v>17</v>
+      </c>
+      <c r="K142" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>490000</v>
+      </c>
+      <c r="N142" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("headphone","xiaomi","Tai nghe Bluetooth True Wireless Xiaomi Redmi Buds 6 Active","490000","None","1","China","images/tai-nghe-bluetooth-xiaomi-redmi-buds-6-active-spa.png","1"),</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>334</v>
+      </c>
+      <c r="B143" t="s">
+        <v>92</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143" t="s">
+        <v>9</v>
+      </c>
+      <c r="H143" t="s">
+        <v>401</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143" t="s">
+        <v>17</v>
+      </c>
+      <c r="K143" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>390000</v>
+      </c>
+      <c r="N143" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("headphone","xiaomi","Tai nghe Bluetooth True Wireless Redmi Buds 4 Lite","390000","None","1","China","images/tai-nghe-khong-day-xiaomi-redmi-buds-4-lite.png","1"),</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>334</v>
+      </c>
+      <c r="B144" t="s">
+        <v>92</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D144" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144" t="s">
+        <v>9</v>
+      </c>
+      <c r="H144" t="s">
+        <v>403</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144" t="s">
+        <v>17</v>
+      </c>
+      <c r="K144" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>990000</v>
+      </c>
+      <c r="N144" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("headphone","xiaomi","Tai nghe Bluetooth True Wireless Xiaomi Redmi Buds 5","990000","None","1","China","images/tai-nghe-khong-day-xiaomi-redmi-buds-5.png","1"),</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>334</v>
+      </c>
+      <c r="B145" t="s">
+        <v>92</v>
+      </c>
+      <c r="C145" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145" t="s">
+        <v>9</v>
+      </c>
+      <c r="H145" t="s">
+        <v>406</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145" t="s">
+        <v>17</v>
+      </c>
+      <c r="K145" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1790000</v>
+      </c>
+      <c r="N145" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("headphone","xiaomi","Tai nghe Bluetooth True Wireless Xiaomi Redmi Buds 5 Pro","1790000","None","1","China","images/tai-nghe-khong-day-xiaomi-redmi-buds-5-pro.png","1"),</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>334</v>
+      </c>
+      <c r="B146" t="s">
+        <v>92</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146" t="s">
+        <v>9</v>
+      </c>
+      <c r="H146" t="s">
+        <v>409</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146" t="s">
+        <v>17</v>
+      </c>
+      <c r="K146" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>2190000</v>
+      </c>
+      <c r="N146" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("headphone","xiaomi","Tai nghe Bluetooth True Wireless Xiaomi Buds 5","2190000","None","1","China","images/tai-nghe-khong-day-xiaomi-buds-5.png","1"),</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>334</v>
+      </c>
+      <c r="B147" t="s">
+        <v>92</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147" t="s">
+        <v>9</v>
+      </c>
+      <c r="H147" t="s">
+        <v>412</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147" t="s">
+        <v>17</v>
+      </c>
+      <c r="K147" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>140000</v>
+      </c>
+      <c r="N147" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("headphone","xiaomi","Tai nghe Xiaomi Mi Basic Chính hãng","140000","None","1","China","images/tai-nghe-xiaomi-mi-basic-chinh-hang.png","1"),</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>334</v>
+      </c>
+      <c r="B148" t="s">
+        <v>92</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148" t="s">
+        <v>9</v>
+      </c>
+      <c r="H148" t="s">
+        <v>415</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148" t="s">
+        <v>17</v>
+      </c>
+      <c r="K148" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>169000</v>
+      </c>
+      <c r="N148" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("headphone","xiaomi","Tai nghe có dây Xiaomi Type-C","169000","None","1","China","images/tai-nghe-co-day-xiaomi-type-c.png","1"),</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>334</v>
+      </c>
+      <c r="B149" t="s">
+        <v>92</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149" t="s">
+        <v>9</v>
+      </c>
+      <c r="H149" t="s">
+        <v>417</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149" t="s">
+        <v>17</v>
+      </c>
+      <c r="K149" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>2590000</v>
+      </c>
+      <c r="N149" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("headphone","xiaomi","Tai nghe thể thao Xiaomi Openwear Stereo","2590000","None","1","China","images/tai-nghe-khong-day-xiaomi-openwear-stereo.png","1"),</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>334</v>
+      </c>
+      <c r="B150" t="s">
+        <v>92</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150" t="s">
+        <v>9</v>
+      </c>
+      <c r="H150" t="s">
+        <v>420</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150" t="s">
+        <v>17</v>
+      </c>
+      <c r="K150" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1690000</v>
+      </c>
+      <c r="N150" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("headphone","xiaomi","Tai nghe Bluetooth True Wireless Xiaomi Buds 3T Pro","1690000","None","1","China","images/buds_3t_pro_2.png","1"),</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>334</v>
+      </c>
+      <c r="B151" t="s">
+        <v>229</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151" t="s">
+        <v>9</v>
+      </c>
+      <c r="H151" t="s">
+        <v>423</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151" t="s">
+        <v>17</v>
+      </c>
+      <c r="K151" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1590000</v>
+      </c>
+      <c r="N151" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("headphone","asus","Tai nghe Bluetooth True Wireless Gaming ROG Cetra","1590000","None","1","China","images/tai-nghe-khong-day-rog-cetra.png","1"),</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>334</v>
+      </c>
+      <c r="B152" t="s">
+        <v>229</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152" t="s">
+        <v>9</v>
+      </c>
+      <c r="H152" t="s">
+        <v>426</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152" t="s">
+        <v>17</v>
+      </c>
+      <c r="K152" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>840000</v>
+      </c>
+      <c r="N152" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("headphone","asus","Tai nghe có dây Gaming ASUS ROG Cetra II Core","840000","None","1","China","images/tai-nghe-rog-cetra-ii-core.png","1"),</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>334</v>
+      </c>
+      <c r="B153" t="s">
+        <v>229</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153" t="s">
+        <v>9</v>
+      </c>
+      <c r="H153" t="s">
+        <v>429</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153" t="s">
+        <v>17</v>
+      </c>
+      <c r="K153" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>740000</v>
+      </c>
+      <c r="N153" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("headphone","asus","Tai nghe chụp tai Gaming Asus TUF H1","740000","None","1","China","images/tai-nghe-chup-tai-asus-tuf-h1.png","1"),</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>334</v>
+      </c>
+      <c r="B154" t="s">
+        <v>229</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154" t="s">
+        <v>9</v>
+      </c>
+      <c r="H154" t="s">
+        <v>431</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154" t="s">
+        <v>17</v>
+      </c>
+      <c r="K154" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>2290000</v>
+      </c>
+      <c r="N154" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("headphone","asus","Tai nghe chụp tai ASUS TUF Gaming H3","2290000","None","1","China","images/tai-nghe-khong-day-asus-tuf-gaming-h3.png","1"),</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>334</v>
+      </c>
+      <c r="B155" t="s">
+        <v>229</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="G155" t="s">
+        <v>9</v>
+      </c>
+      <c r="H155" t="s">
+        <v>433</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155" t="s">
+        <v>17</v>
+      </c>
+      <c r="K155" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1590000</v>
+      </c>
+      <c r="N155" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("headphone","asus","Tai nghe chụp tai Gaming ASUS ROG Delta S Core","1590000","None","1","China","images/tai-nghe-gaming-asus-rog-deltra-s-core.png","1"),</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>334</v>
+      </c>
+      <c r="B156" t="s">
+        <v>229</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156" t="s">
+        <v>9</v>
+      </c>
+      <c r="H156" t="s">
+        <v>436</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156" t="s">
+        <v>17</v>
+      </c>
+      <c r="K156" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>4790000</v>
+      </c>
+      <c r="N156" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("headphone","asus","Tai nghe Bluetooth True Wireless Gaming Asus Rog Cetra SpeedNova","4790000","None","1","China","images/tai-nghe-asus-rog-cetra-tws-speednova_10_.png","1"),</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>334</v>
+      </c>
+      <c r="B157" t="s">
+        <v>437</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157" t="s">
+        <v>9</v>
+      </c>
+      <c r="H157" t="s">
+        <v>439</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157" t="s">
+        <v>17</v>
+      </c>
+      <c r="K157" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>390000</v>
+      </c>
+      <c r="N157" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("headphone","havit","Tai nghe Bluetooth chụp tai Havit H630BT","390000","None","1","China","images/tai-nghe-chup-tai-havit-h630bt.png","1"),</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>334</v>
+      </c>
+      <c r="B158" t="s">
+        <v>437</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158" t="s">
+        <v>9</v>
+      </c>
+      <c r="H158" t="s">
+        <v>442</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158" t="s">
+        <v>17</v>
+      </c>
+      <c r="K158" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>190000</v>
+      </c>
+      <c r="N158" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("headphone","havit","Tai nghe Bluetooth True Wireless Havit TW981","190000","None","1","China","images/tai-nghe-bluetooth-havit-tw981_1_.png","1"),</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>334</v>
+      </c>
+      <c r="B159" t="s">
+        <v>437</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="G159" t="s">
+        <v>9</v>
+      </c>
+      <c r="H159" t="s">
+        <v>445</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159" t="s">
+        <v>17</v>
+      </c>
+      <c r="K159" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>199000</v>
+      </c>
+      <c r="N159" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("headphone","havit","Tai nghe Bluetooth True Wireless Havit TW969","199000","None","1","China","images/tai-nghe-khong-day-havit-tw969.png","1"),</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>334</v>
+      </c>
+      <c r="B160" t="s">
+        <v>437</v>
+      </c>
+      <c r="C160" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="G160" t="s">
+        <v>9</v>
+      </c>
+      <c r="H160" t="s">
+        <v>448</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160" t="s">
+        <v>17</v>
+      </c>
+      <c r="K160" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>290000</v>
+      </c>
+      <c r="N160" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("headphone","havit","Tai nghe Bluetooth True Wireless Havit 982","290000","None","1","China","images/tai-nghe-khong-day-havit-tw982.png","1"),</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>334</v>
+      </c>
+      <c r="B161" t="s">
+        <v>437</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="G161" t="s">
+        <v>9</v>
+      </c>
+      <c r="H161" t="s">
+        <v>451</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161" t="s">
+        <v>17</v>
+      </c>
+      <c r="K161" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>249000</v>
+      </c>
+      <c r="N161" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("headphone","havit","Tai nghe Bluetooth True Wireless Havit 931","249000","None","1","China","images/tai-nghe-khong-day-havit-tw-931_5_.png","1"),</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>334</v>
+      </c>
+      <c r="B162" t="s">
+        <v>437</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="G162" t="s">
+        <v>9</v>
+      </c>
+      <c r="H162" t="s">
+        <v>454</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162" t="s">
+        <v>17</v>
+      </c>
+      <c r="K162" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>320000</v>
+      </c>
+      <c r="N162" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("headphone","havit","Tai nghe chụp tai có dây Gaming Havit H2040D","320000","None","1","China","images/tai-nghe-gaming-havit-h2040d_1_.png","1"),</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>334</v>
+      </c>
+      <c r="B163" t="s">
+        <v>437</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="G163" t="s">
+        <v>9</v>
+      </c>
+      <c r="H163" t="s">
+        <v>456</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163" t="s">
+        <v>17</v>
+      </c>
+      <c r="K163" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>550000</v>
+      </c>
+      <c r="N163" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("headphone","havit","Tai nghe Bluetooth True Wireless Havit TW958 Pro","550000","None","1","China","images/tai-nghe-khong-day-havit-tw958-pro_1_.png","1"),</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>334</v>
+      </c>
+      <c r="B164" t="s">
+        <v>437</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="G164" t="s">
+        <v>9</v>
+      </c>
+      <c r="H164" t="s">
+        <v>459</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164" t="s">
+        <v>17</v>
+      </c>
+      <c r="K164" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>730000</v>
+      </c>
+      <c r="N164" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("headphone","havit","Tai nghe Bluetooth chụp tai Havit H655BT","730000","None","1","China","images/tai-nghe-chup-tai-havit-h665t_12_.png","1"),</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>460</v>
+      </c>
+      <c r="B165" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="G165" t="s">
+        <v>9</v>
+      </c>
+      <c r="H165" t="s">
+        <v>463</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165" t="s">
+        <v>17</v>
+      </c>
+      <c r="K165" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>11490000</v>
+      </c>
+      <c r="N165" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("tivi","samsung","Smart Tivi Samsung QLED 4K 50 inch 2024 (50Q60D)","11490000","None","1","China","images/smart-tivi-samsung-qled-50q60d-4k-50-inch-2024.1.png","1"),</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>460</v>
+      </c>
+      <c r="B166" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166" t="s">
+        <v>9</v>
+      </c>
+      <c r="H166" t="s">
+        <v>465</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166" t="s">
+        <v>17</v>
+      </c>
+      <c r="K166" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>6690000</v>
+      </c>
+      <c r="N166" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("tivi","samsung","Smart Tivi Samsung UHD 4K 43 inch UA43AU7002","6690000","None","1","China","images/smart-tivi-samsung-uhd-4k-43-inch-ua43au7002.png","1"),</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>460</v>
+      </c>
+      <c r="B167" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+      <c r="G167" t="s">
+        <v>9</v>
+      </c>
+      <c r="H167" t="s">
+        <v>468</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167" t="s">
+        <v>17</v>
+      </c>
+      <c r="K167" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>10490000</v>
+      </c>
+      <c r="N167" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("tivi","samsung","Smart Tivi Samsung UHD 4K 55 INCH 2024 (55DU8000)","10490000","None","1","China","images/smart-tivi-samsung-uhd-55du8000-4k-55-inch-2024.png","1"),</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>460</v>
+      </c>
+      <c r="B168" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="G168" t="s">
+        <v>9</v>
+      </c>
+      <c r="H168" t="s">
+        <v>471</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168" t="s">
+        <v>17</v>
+      </c>
+      <c r="K168" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>13190000</v>
+      </c>
+      <c r="N168" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("tivi","samsung","Smart Tivi Samsung UHD 4K 65 INCH 2024 (65DU8000)","13190000","None","1","China","images/smart-tivi-samsung-uhd-65du8000-4k-65-inch-2024.png","1"),</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>460</v>
+      </c>
+      <c r="B169" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="G169" t="s">
+        <v>9</v>
+      </c>
+      <c r="H169" t="s">
+        <v>473</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169" t="s">
+        <v>17</v>
+      </c>
+      <c r="K169" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>10290000</v>
+      </c>
+      <c r="N169" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("tivi","samsung","Smart Tivi Samsung Crystal UHD 55 Inch (55BU8000)","10290000","None","1","China","images/smart-tivi-samsung-crystal-uhd-55-inch-55bu8000.png","1"),</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>460</v>
+      </c>
+      <c r="B170" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170" t="s">
+        <v>9</v>
+      </c>
+      <c r="H170" t="s">
+        <v>475</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170" t="s">
+        <v>17</v>
+      </c>
+      <c r="K170" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>21490000</v>
+      </c>
+      <c r="N170" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("tivi","samsung","Smart Tivi Samsung khung tranh 4K 55 inch 2024 (55LS03D)","21490000","None","1","China","images/smart-tivi-samsung-khung-tranh-55ls03d-4k-55-inch-2024.png","1"),</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>460</v>
+      </c>
+      <c r="B171" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+      <c r="G171" t="s">
+        <v>9</v>
+      </c>
+      <c r="H171" t="s">
+        <v>478</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171" t="s">
+        <v>17</v>
+      </c>
+      <c r="K171" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>18490000</v>
+      </c>
+      <c r="N171" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("tivi","samsung","Smart Tivi Samsung QLED 75 inch (75Q60BAK)","18490000","None","1","China","images/smart-tivi-samsung-qled-75-inch-75q60bak.png","1"),</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>460</v>
+      </c>
+      <c r="B172" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="G172" t="s">
+        <v>9</v>
+      </c>
+      <c r="H172" t="s">
+        <v>481</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172" t="s">
+        <v>17</v>
+      </c>
+      <c r="K172" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>26190000</v>
+      </c>
+      <c r="N172" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("tivi","samsung","Smart Tivi Samsung Crystal UHD 85 inch (85BU8000)","26190000","None","1","China","images/smart-tivi-samsung-crystal-uhd-85-inch-85bu8000.png","1"),</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>460</v>
+      </c>
+      <c r="B173" t="s">
+        <v>92</v>
+      </c>
+      <c r="C173" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="G173" t="s">
+        <v>9</v>
+      </c>
+      <c r="H173" t="s">
+        <v>484</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173" t="s">
+        <v>17</v>
+      </c>
+      <c r="K173" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>6490000</v>
+      </c>
+      <c r="N173" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("tivi","xiaomi","Tivi Xiaomi A Pro 4K 43 inch QLED 2025","6490000","None","1","China","images/smart_tivi_qned_lg_4k_75_inch_75qned86sra.png","1"),</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>460</v>
+      </c>
+      <c r="B174" t="s">
+        <v>92</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+      <c r="G174" t="s">
+        <v>9</v>
+      </c>
+      <c r="H174" t="s">
+        <v>487</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174" t="s">
+        <v>17</v>
+      </c>
+      <c r="K174" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>8490000</v>
+      </c>
+      <c r="N174" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("tivi","xiaomi","Tivi Xiaomi A 4K 2025 55 inch","8490000","None","1","China","images/tivi-xiaomi-a-55-inch-4k-2025.png","1"),</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>460</v>
+      </c>
+      <c r="B175" t="s">
+        <v>92</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="G175" t="s">
+        <v>9</v>
+      </c>
+      <c r="H175" t="s">
+        <v>489</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175" t="s">
+        <v>17</v>
+      </c>
+      <c r="K175" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>9490000</v>
+      </c>
+      <c r="N175" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("tivi","xiaomi","Tivi Xiaomi A Pro 4K 55 inch QLED 2025","9490000","None","1","China","images/tivi-xiaomi-qled-a-pro-55-inch-4k-2025.png","1"),</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>460</v>
+      </c>
+      <c r="B176" t="s">
+        <v>92</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="G176" t="s">
+        <v>9</v>
+      </c>
+      <c r="H176" t="s">
+        <v>492</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176" t="s">
+        <v>17</v>
+      </c>
+      <c r="K176" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>12730000</v>
+      </c>
+      <c r="N176" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("tivi","xiaomi","Tivi Xiaomi A Pro 4K 65 inch QLED 2025","12730000","None","1","China","images/tivi-xiaomi-qled-a-pro-65-inch-4k-2025.png","1"),</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>460</v>
+      </c>
+      <c r="B177" t="s">
+        <v>92</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177" t="s">
+        <v>9</v>
+      </c>
+      <c r="H177" t="s">
+        <v>494</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177" t="s">
+        <v>17</v>
+      </c>
+      <c r="K177" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>3990000</v>
+      </c>
+      <c r="N177" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("tivi","xiaomi","Tivi Xiaomi A 32 inch HD","3990000","None","1","China","images/tivi-xiaomi-a-32-inch-hd.png","1"),</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>460</v>
+      </c>
+      <c r="B178" t="s">
+        <v>92</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178" t="s">
+        <v>9</v>
+      </c>
+      <c r="H178" t="s">
+        <v>497</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178" t="s">
+        <v>17</v>
+      </c>
+      <c r="K178" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>5490000</v>
+      </c>
+      <c r="N178" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("tivi","xiaomi","Tivi Xiaomi A FHD 43 inch 2025","5490000","None","1","China","images/tivi-xiaomi-a-43-inch-fhd-2025.png","1"),</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>460</v>
+      </c>
+      <c r="B179" t="s">
+        <v>92</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+      <c r="G179" t="s">
+        <v>9</v>
+      </c>
+      <c r="H179" t="s">
+        <v>500</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179" t="s">
+        <v>17</v>
+      </c>
+      <c r="K179" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>15990000</v>
+      </c>
+      <c r="N179" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("tivi","xiaomi","Xiaomi Smart Display S Mini LED 55 inch 2025","15990000","None","1","China","images/google-tivi-xiaomi-s-mini-led-55-inch-2025.png","1"),</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>460</v>
+      </c>
+      <c r="B180" t="s">
+        <v>92</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+      <c r="G180" t="s">
+        <v>9</v>
+      </c>
+      <c r="H180" t="s">
+        <v>503</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180" t="s">
+        <v>17</v>
+      </c>
+      <c r="K180" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>31990000</v>
+      </c>
+      <c r="N180" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("tivi","xiaomi","Xiaomi Max 2025 85 N36V","31990000","None","1","China","images/google-tivi-xiaomi-max-85-inch-n36v-2025.png","1"),</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>460</v>
+      </c>
+      <c r="B181" t="s">
+        <v>335</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+      <c r="G181" t="s">
+        <v>9</v>
+      </c>
+      <c r="H181" t="s">
+        <v>506</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181" t="s">
+        <v>17</v>
+      </c>
+      <c r="K181" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>12890000</v>
+      </c>
+      <c r="N181" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("tivi","sony","Smart Tivi Sony 4K 55 inch KD-55X75K","12890000","None","1","China","images/smart-tivi-sony-4k-55-inch-kd-55x75k.png","1"),</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>460</v>
+      </c>
+      <c r="B182" t="s">
+        <v>335</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F182">
+        <v>1</v>
+      </c>
+      <c r="G182" t="s">
+        <v>9</v>
+      </c>
+      <c r="H182" t="s">
+        <v>508</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182" t="s">
+        <v>17</v>
+      </c>
+      <c r="K182" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>15490000</v>
+      </c>
+      <c r="N182" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("tivi","sony","Smart Tivi Sony 4K 65 inch KD-65X75K","15490000","None","1","China","images/smart_tivi_samsung_qled_55_inch_55q60bak_1_.png","1"),</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>460</v>
+      </c>
+      <c r="B183" t="s">
+        <v>335</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+      <c r="G183" t="s">
+        <v>9</v>
+      </c>
+      <c r="H183" t="s">
+        <v>511</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183" t="s">
+        <v>17</v>
+      </c>
+      <c r="K183" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>15690000</v>
+      </c>
+      <c r="N183" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("tivi","sony","Google Tivi Sony 4K 50 inch (K-50S30)","15690000","None","1","China","images/google-tivi-sony-k-50s30-4k-50-inch.png","1"),</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>460</v>
+      </c>
+      <c r="B184" t="s">
+        <v>335</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="G184" t="s">
+        <v>9</v>
+      </c>
+      <c r="H184" t="s">
+        <v>513</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184" t="s">
+        <v>17</v>
+      </c>
+      <c r="K184" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>19790000</v>
+      </c>
+      <c r="N184" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("tivi","sony","Google Tivi Sony 4K 65 inch KD-65X80L","19790000","None","1","China","images/google-tivi-sony-kd-65x80l-4k-65-inch.png","1"),</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>460</v>
+      </c>
+      <c r="B185" t="s">
+        <v>335</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
+      <c r="G185" t="s">
+        <v>9</v>
+      </c>
+      <c r="H185" t="s">
+        <v>515</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185" t="s">
+        <v>17</v>
+      </c>
+      <c r="K185" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>27990000</v>
+      </c>
+      <c r="N185" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("tivi","sony","Google Tivi Sony 4K 75 inch KD-75X80L","27990000","None","1","China","images/google-tivi-sony-kd-75x80l-4k-75-inch_6_.png","1"),</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>460</v>
+      </c>
+      <c r="B186" t="s">
+        <v>335</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+      <c r="G186" t="s">
+        <v>9</v>
+      </c>
+      <c r="H186" t="s">
+        <v>518</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186" t="s">
+        <v>17</v>
+      </c>
+      <c r="K186" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>32900000</v>
+      </c>
+      <c r="N186" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("tivi","sony","Google Tivi OLED Sony 4K 48 inch XR-48A90K","32900000","None","1","China","images/google-tivi-oled-sony-xr-48a90k-4k-48-inch_4_.png","1"),</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>460</v>
+      </c>
+      <c r="B187" t="s">
+        <v>335</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F187">
+        <v>1</v>
+      </c>
+      <c r="G187" t="s">
+        <v>9</v>
+      </c>
+      <c r="H187" t="s">
+        <v>520</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187" t="s">
+        <v>17</v>
+      </c>
+      <c r="K187" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>39990000</v>
+      </c>
+      <c r="N187" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>("tivi","sony","Google Tivi OLED Sony 4K 55 inch XR-55A80L","39990000","None","1","China","images/google-tivi-oled-sony-xr-55a80l-4k-55-inch_8_.png","1"),</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
